--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail14 Features.xlsx
@@ -2897,7 +2897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2909,28 +2909,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2951,115 +2949,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3076,72 +3064,66 @@
         <v>7.656251231936236e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.9253428061290577</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.3097852996495067</v>
+        <v>2.811271163345489e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>-0.019114164191214</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.811271163345489e-06</v>
+        <v>0.2909863019782011</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.019114164191214</v>
+        <v>0.08501144735764618</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2909863019782011</v>
+        <v>1.726368831094658</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08501144735764618</v>
+        <v>1.338836347291108</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.653724878875831</v>
+        <v>4.135623961247632</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.338836347291108</v>
+        <v>1.297087592088815e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.135623961247632</v>
+        <v>14228774.31279491</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.297087592088815e-14</v>
+        <v>8.166127736619433e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>14228774.31279491</v>
+        <v>2.626057836431874</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.166127736619433e-06</v>
+        <v>0.0002639855089361201</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2.626057836431874</v>
+        <v>11.85027144780054</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002639855089361201</v>
+        <v>1.362722232901015</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.85027144780054</v>
+        <v>0.03707120344940666</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.362722232901015</v>
+        <v>2.402249523798881</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03707120344940666</v>
+        <v>0.953035870654043</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.402249523798881</v>
+        <v>1.759051824793058</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.953035870654043</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.759051824793058</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1360934893528251</v>
       </c>
     </row>
@@ -3156,72 +3138,66 @@
         <v>7.704766331363642e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.9321835099532793</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.2827968819898903</v>
+        <v>2.810339107843426e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>-0.005487918234388327</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.810339107843426e-06</v>
+        <v>0.2879173782674372</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.005487918234388327</v>
+        <v>0.08290701070584224</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2879173782674372</v>
+        <v>1.756343097357909</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08290701070584224</v>
+        <v>1.332827612381669</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.683822167393275</v>
+        <v>5.337831077868376</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.332827612381669</v>
+        <v>6.9114399887972e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.337831077868376</v>
+        <v>26517893.70966744</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.9114399887972e-15</v>
+        <v>4.413575988906015e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>26517893.70966744</v>
+        <v>4.860115523999985</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.413575988906015e-06</v>
+        <v>0.0002460796515965849</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4.860115523999985</v>
+        <v>10.62527286204568</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002460796515965849</v>
+        <v>1.548660479675159</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.62527286204568</v>
+        <v>0.02778151253503135</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.548660479675159</v>
+        <v>2.592137873825085</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02778151253503135</v>
+        <v>0.9529244489477069</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.592137873825085</v>
+        <v>1.788642552440918</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9529244489477069</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.788642552440918</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1712635128704389</v>
       </c>
     </row>
@@ -3236,72 +3212,66 @@
         <v>7.703245610114685e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.9304902310245264</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.2825291222608519</v>
+        <v>2.81039766987195e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>0.007070997490837117</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.81039766987195e-06</v>
+        <v>0.2943016155812813</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.007070997490837117</v>
+        <v>0.08663872142328601</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2943016155812813</v>
+        <v>1.820051874533852</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08663872142328601</v>
+        <v>1.438961391501894</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.767364129932964</v>
+        <v>5.202611418157821</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.438961391501894</v>
+        <v>2.921903759988403e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.202611418157821</v>
+        <v>59210687.14189302</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.921903759988403e-15</v>
+        <v>2.002008113840637e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>59210687.14189302</v>
+        <v>10.24391838026056</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.002008113840637e-06</v>
+        <v>0.0002069306321347939</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10.24391838026056</v>
+        <v>11.35090502010001</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002069306321347939</v>
+        <v>1.185636703095869</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.35090502010001</v>
+        <v>0.02666157270153094</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.185636703095869</v>
+        <v>2.543281342948194</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02666157270153094</v>
+        <v>0.9576711968021991</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.543281342948194</v>
+        <v>1.654123389330538</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9576711968021991</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.654123389330538</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2029745417485407</v>
       </c>
     </row>
@@ -3316,72 +3286,66 @@
         <v>7.678649742074149e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9033552905074786</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.2706970652343252</v>
+        <v>2.811454248287044e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>0.02075143661983551</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.811454248287044e-06</v>
+        <v>0.3067411018560303</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02075143661983551</v>
+        <v>0.09448268018923513</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3067411018560303</v>
+        <v>1.82200998715631</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09448268018923513</v>
+        <v>1.54888436788188</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.779574708185955</v>
+        <v>4.220021163806989</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.54888436788188</v>
+        <v>2.173574862445855e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.220021163806989</v>
+        <v>81215825.2212725</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.173574862445855e-15</v>
+        <v>1.435149564963456e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>81215825.2212725</v>
+        <v>14.33692210742158</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.435149564963456e-06</v>
+        <v>0.0002039564627624794</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>14.33692210742158</v>
+        <v>12.48183201792854</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002039564627624794</v>
+        <v>1.061159676278554</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.48183201792854</v>
+        <v>0.03177562769371297</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.061159676278554</v>
+        <v>2.3800201207771</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03177562769371297</v>
+        <v>0.9576628080656873</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.3800201207771</v>
+        <v>1.513728887441559</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9576628080656873</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.513728887441559</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2146327077701004</v>
       </c>
     </row>
@@ -3396,72 +3360,66 @@
         <v>7.690087606805948e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8378113951042329</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.1625679952052574</v>
+        <v>2.813550838434941e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>0.03289182024012657</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.813550838434941e-06</v>
+        <v>0.3185632355046633</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03289182024012657</v>
+        <v>0.102543593665044</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3185632355046633</v>
+        <v>1.633115855244181</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.102543593665044</v>
+        <v>1.435333105326356</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.565481602338456</v>
+        <v>6.404159196689108</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.435333105326356</v>
+        <v>5.655626270047066e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.404159196689108</v>
+        <v>39129738.7819094</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.655626270047066e-15</v>
+        <v>2.633051011362983e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>39129738.7819094</v>
+        <v>8.659535570030403</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.633051011362983e-06</v>
+        <v>0.000219778183302153</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.659535570030403</v>
+        <v>10.0017926790569</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000219778183302153</v>
+        <v>1.537545268403669</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.0017926790569</v>
+        <v>0.02198569887144345</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.537545268403669</v>
+        <v>2.749682121884881</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02198569887144345</v>
+        <v>0.9489536199716427</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.749682121884881</v>
+        <v>1.790259800320582</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9489536199716427</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.790259800320582</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1763003166033119</v>
       </c>
     </row>
@@ -3476,72 +3434,66 @@
         <v>7.774383736342665e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7561122939134514</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.02924545689281155</v>
+        <v>2.816269702023056e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>0.03574640523265609</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.816269702023056e-06</v>
+        <v>0.3175419736177844</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03574640523265609</v>
+        <v>0.1021066356722159</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3175419736177844</v>
+        <v>1.612033582529801</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1021066356722159</v>
+        <v>1.393552785727472</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.540552707296019</v>
+        <v>4.210566059235008</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.393552785727472</v>
+        <v>1.525175584860993e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.210566059235008</v>
+        <v>14758576.84829541</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.525175584860993e-14</v>
+        <v>6.955083525456508e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>14758576.84829541</v>
+        <v>3.322070207654332</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.955083525456508e-06</v>
+        <v>0.000288252545382216</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.322070207654332</v>
+        <v>9.872064591225788</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000288252545382216</v>
+        <v>1.843196653775376</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.872064591225788</v>
+        <v>0.0280924183582963</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.843196653775376</v>
+        <v>2.612983707535412</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0280924183582963</v>
+        <v>0.9480939763882247</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.612983707535412</v>
+        <v>1.887307216509814</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9480939763882247</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.887307216509814</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1275797114803544</v>
       </c>
     </row>
@@ -3556,72 +3508,66 @@
         <v>7.889611204533133e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6774957967615968</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2234133196982175</v>
+        <v>2.818890510856099e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>0.03039020364341656</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.818890510856099e-06</v>
+        <v>0.3118756514597833</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03039020364341656</v>
+        <v>0.09818414896934359</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3118756514597833</v>
+        <v>1.558782102489918</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.09818414896934359</v>
+        <v>1.386280481049335</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.480763949234464</v>
+        <v>3.781735238031209</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.386280481049335</v>
+        <v>1.890682369837964e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.781735238031209</v>
+        <v>12314583.36184513</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.890682369837964e-14</v>
+        <v>8.166657564824088e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>12314583.36184513</v>
+        <v>2.867200214588903</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.166657564824088e-06</v>
+        <v>0.0001848381826093449</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2.867200214588903</v>
+        <v>10.63454943792209</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001848381826093449</v>
+        <v>1.373593610233453</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.63454943792209</v>
+        <v>0.0209040232053004</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.373593610233453</v>
+        <v>2.906472967644472</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0209040232053004</v>
+        <v>0.9443636198133371</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.906472967644472</v>
+        <v>1.923950084323859</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9443636198133371</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.923950084323859</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1478078577707512</v>
       </c>
     </row>
@@ -3636,72 +3582,66 @@
         <v>7.988021153754893e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6087393596561337</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3824312319941896</v>
+        <v>2.820987775652425e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>0.02214369344615063</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.820987775652425e-06</v>
+        <v>0.3078208829645462</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02214369344615063</v>
+        <v>0.09523455308811138</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3078208829645462</v>
+        <v>1.542737063002869</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.09523455308811138</v>
+        <v>1.391480141135631</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.459074193936887</v>
+        <v>3.741336144425539</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.391480141135631</v>
+        <v>1.931734142890515e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.741336144425539</v>
+        <v>12259568.952836</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.931734142890515e-14</v>
+        <v>8.214388044143486e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>12259568.952836</v>
+        <v>2.903339061826437</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.214388044143486e-06</v>
+        <v>0.0001454875909239674</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>2.903339061826437</v>
+        <v>10.92444571216097</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001454875909239674</v>
+        <v>1.125033772703808</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.92444571216097</v>
+        <v>0.01736300036142138</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.125033772703808</v>
+        <v>2.854549482941277</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01736300036142138</v>
+        <v>0.944665224962921</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.854549482941277</v>
+        <v>1.905482977695976</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.944665224962921</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.905482977695976</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1709330083405833</v>
       </c>
     </row>
@@ -3716,72 +3656,66 @@
         <v>8.054315678010757e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5594507964429573</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.4903584339095781</v>
+        <v>2.822369472719516e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>0.01206177121552939</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.822369472719516e-06</v>
+        <v>0.3039513731359371</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01206177121552939</v>
+        <v>0.09251764817661219</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3039513731359371</v>
+        <v>1.531047099878972</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.09251764817661219</v>
+        <v>1.388125638737784</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.443214300447969</v>
+        <v>3.746332887879144</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.388125638737784</v>
+        <v>1.926584604289593e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.746332887879144</v>
+        <v>12344955.66427188</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.926584604289593e-14</v>
+        <v>8.134740784446675e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>12344955.66427188</v>
+        <v>2.936075063433762</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>8.134740784446675e-06</v>
+        <v>0.0001399164089030359</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>2.936075063433762</v>
+        <v>9.918342276275359</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001399164089030359</v>
+        <v>1.17981904076682</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.918342276275359</v>
+        <v>0.01376406874140269</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.17981904076682</v>
+        <v>2.827341482544068</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01376406874140269</v>
+        <v>0.9431618215333596</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.827341482544068</v>
+        <v>1.920856498386582</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9431618215333596</v>
+        <v>4</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.920856498386582</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1766517317836614</v>
       </c>
     </row>
@@ -3796,72 +3730,66 @@
         <v>8.083327632641063e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5398725567940171</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5355860412040458</v>
+        <v>2.822904500973021e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>0.001144044672268691</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.822904500973021e-06</v>
+        <v>0.2984256864855863</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.001144044672268691</v>
+        <v>0.08904007623913811</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2984256864855863</v>
+        <v>1.527197741268952</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.08904007623913811</v>
+        <v>1.380027742357896</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.436367784869465</v>
+        <v>3.740732627974426</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.380027742357896</v>
+        <v>1.932357511356567e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.740732627974426</v>
+        <v>12197761.30440376</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.932357511356567e-14</v>
+        <v>8.191870595825088e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>12197761.30440376</v>
+        <v>2.875065482446942</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.191870595825088e-06</v>
+        <v>0.0001394444027008463</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2.875065482446942</v>
+        <v>8.445242510028683</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001394444027008463</v>
+        <v>1.272868663932313</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.445242510028683</v>
+        <v>0.009945470569620311</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.272868663932313</v>
+        <v>2.956210959413814</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009945470569620311</v>
+        <v>0.942964229184503</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.956210959413814</v>
+        <v>1.926241613148492</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.942964229184503</v>
+        <v>4</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.926241613148492</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1682799350858684</v>
       </c>
     </row>
@@ -3876,72 +3804,66 @@
         <v>8.052275019142249e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5513188993445757</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4973875559324643</v>
+        <v>2.822509368394128e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>-0.01130213092759075</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.822509368394128e-06</v>
+        <v>0.288938433152475</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01130213092759075</v>
+        <v>0.08357845281487659</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.288938433152475</v>
+        <v>1.534657852660023</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.08357845281487659</v>
+        <v>1.394265746543639</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.443844920887301</v>
+        <v>3.73529767944223</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.394265746543639</v>
+        <v>1.937984856240884e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.73529767944223</v>
+        <v>12231420.82521544</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.937984856240884e-14</v>
+        <v>8.198945642975346e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>12231420.82521544</v>
+        <v>2.899373705497146</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.198945642975346e-06</v>
+        <v>0.0001555033501508701</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2.899373705497146</v>
+        <v>7.894431128409826</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001555033501508701</v>
+        <v>1.564208598725361</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.894431128409826</v>
+        <v>0.009691286450053592</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.564208598725361</v>
+        <v>2.975234241598273</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009691286450053592</v>
+        <v>0.9414076854632996</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.975234241598273</v>
+        <v>1.885786260853762</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9414076854632996</v>
+        <v>4</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.885786260853762</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1514829675298463</v>
       </c>
     </row>
@@ -3956,72 +3878,66 @@
         <v>7.896309738676456e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5682960297822399</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.3770864924392394</v>
+        <v>2.821066211433545e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>-0.02431086467288001</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.821066211433545e-06</v>
+        <v>0.2786520778075924</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02431086467288001</v>
+        <v>0.07821239504594377</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2786520778075924</v>
+        <v>1.53314357416803</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.07821239504594377</v>
+        <v>1.405722337323269</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.441128179007765</v>
+        <v>3.689811994078833</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.405722337323269</v>
+        <v>1.986059881194192e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.689811994078833</v>
+        <v>11897693.44609041</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.986059881194192e-14</v>
+        <v>8.363567576785803e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>11897693.44609041</v>
+        <v>2.811369236325567</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.363567576785803e-06</v>
+        <v>0.0001678106155429979</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2.811369236325567</v>
+        <v>9.473673783344564</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001678106155429979</v>
+        <v>1.35207631656677</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.473673783344564</v>
+        <v>0.01506108580339027</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.35207631656677</v>
+        <v>2.870832652338266</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01506108580339027</v>
+        <v>0.9399340202079204</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.870832652338266</v>
+        <v>1.900631389515241</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9399340202079204</v>
+        <v>4</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.900631389515241</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1448464060568662</v>
       </c>
     </row>
@@ -4036,72 +3952,66 @@
         <v>7.577662486952247e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.521385901937876</v>
+        <v>3.08637118229773e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.3488694814548201</v>
+        <v>2.818854999714955e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.08637118229773e-07</v>
+        <v>-0.03130320520011533</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.818854999714955e-06</v>
+        <v>0.2836972121536728</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03130320520011533</v>
+        <v>0.08145906359299167</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2836972121536728</v>
+        <v>1.516456077921382</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.08145906359299167</v>
+        <v>1.375722819851291</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.425761058242147</v>
+        <v>3.621829701441158</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.375722819851291</v>
+        <v>2.061316897207451e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.621829701441158</v>
+        <v>11118559.43533686</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.061316897207451e-14</v>
+        <v>8.791231048418515e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>11118559.43533686</v>
+        <v>2.548248676150847</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.791231048418515e-06</v>
+        <v>0.000160250702446432</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2.548248676150847</v>
+        <v>11.26022873585493</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000160250702446432</v>
+        <v>1.10479899416034</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.26022873585493</v>
+        <v>0.02031862744231531</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.10479899416034</v>
+        <v>2.735928887843126</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02031862744231531</v>
+        <v>0.9416152197518727</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.735928887843126</v>
+        <v>1.936120721308447</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9416152197518727</v>
+        <v>4</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.936120721308447</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1567134496142401</v>
       </c>
     </row>
@@ -4116,72 +4026,66 @@
         <v>7.178860004734086e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3794318662064727</v>
+        <v>3.048620529457782e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.5838260761541525</v>
+        <v>2.816555911626651e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.048620529457782e-07</v>
+        <v>-0.02970774040708022</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.816555911626651e-06</v>
+        <v>0.3005472386230329</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02970774040708022</v>
+        <v>0.09120612338897433</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3005472386230329</v>
+        <v>1.477195611006706</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.09120612338897433</v>
+        <v>1.367715051588153</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.388232370651567</v>
+        <v>3.620356858629874</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.367715051588153</v>
+        <v>2.062994418760257e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.620356858629874</v>
+        <v>11367302.9606937</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.062994418760257e-14</v>
+        <v>8.501683553047829e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>11367302.9606937</v>
+        <v>2.665710133430925</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.501683553047829e-06</v>
+        <v>0.000147348054038024</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.665710133430925</v>
+        <v>10.51380622816496</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.000147348054038024</v>
+        <v>1.115435387423329</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.51380622816496</v>
+        <v>0.01628787178191796</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.115435387423329</v>
+        <v>2.788845626081944</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01628787178191796</v>
+        <v>0.9395989199518253</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.788845626081944</v>
+        <v>1.932347165462061</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9395989199518253</v>
+        <v>5</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.932347165462061</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1651228020843066</v>
       </c>
     </row>
@@ -4196,72 +4100,66 @@
         <v>6.832794297901731e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2095683595723249</v>
+        <v>2.808391726528864e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9213508707148463</v>
+        <v>2.814699361276786e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.808391726528864e-07</v>
+        <v>-0.022732918407699</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.814699361276786e-06</v>
+        <v>0.3137969007344071</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.022732918407699</v>
+        <v>0.09897133064943994</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.3137969007344071</v>
+        <v>1.464823926461226</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.09897133064943994</v>
+        <v>1.352373492728568</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.375667489221275</v>
+        <v>3.638578840540759</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.352373492728568</v>
+        <v>2.04238323030044e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.638578840540759</v>
+        <v>11527610.67475045</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.04238323030044e-14</v>
+        <v>8.352138455301717e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>11527610.67475045</v>
+        <v>2.714037455357967</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.352138455301717e-06</v>
+        <v>0.0001444890334102581</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2.714037455357967</v>
+        <v>8.537799886997052</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001444890334102581</v>
+        <v>1.313285130620071</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.537799886997052</v>
+        <v>0.01053238748966603</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.313285130620071</v>
+        <v>2.961223043144122</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01053238748966603</v>
+        <v>0.9379810912065987</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.961223043144122</v>
+        <v>1.912799857440675</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9379810912065987</v>
+        <v>5</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.912799857440675</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1598017947480379</v>
       </c>
     </row>
@@ -4276,72 +4174,66 @@
         <v>6.612320824983447e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.09332949439824728</v>
+        <v>2.48348932231394e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.129706892946829</v>
+        <v>2.813491469843696e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.48348932231394e-07</v>
+        <v>-0.01281702818716095</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.813491469843696e-06</v>
+        <v>0.3191937059021614</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01281702818716095</v>
+        <v>0.1020303873300422</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3191937059021614</v>
+        <v>1.452604153554016</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.1020303873300422</v>
+        <v>1.339092375938694</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.361901419158894</v>
+        <v>3.710883880559307</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.339092375938694</v>
+        <v>1.963568631625011e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.710883880559307</v>
+        <v>12085259.14872842</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.963568631625011e-14</v>
+        <v>7.950284971842663e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>12085259.14872842</v>
+        <v>2.867860489348603</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.950284971842663e-06</v>
+        <v>0.0001497223399714459</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2.867860489348603</v>
+        <v>7.937415796262947</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001497223399714459</v>
+        <v>1.446425099885156</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.937415796262947</v>
+        <v>0.009432892133162009</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.446425099885156</v>
+        <v>2.955032650267605</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009432892133162009</v>
+        <v>0.935916915204029</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.955032650267605</v>
+        <v>1.929627102422226</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.935916915204029</v>
+        <v>8</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.929627102422226</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1557991631060416</v>
       </c>
     </row>
@@ -4356,72 +4248,66 @@
         <v>6.52988292851167e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.05239723628380998</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.18856609578735</v>
+        <v>2.813014889451614e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.002067999951244591</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.813014889451614e-06</v>
+        <v>0.3176969788808759</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.002067999951244591</v>
+        <v>0.1009198506538941</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.3176969788808759</v>
+        <v>1.41102464018026</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.1009198506538941</v>
+        <v>1.350766584462209</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.325791559880772</v>
+        <v>3.795690296798456</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.350766584462209</v>
+        <v>1.876805536190168e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.795690296798456</v>
+        <v>13356264.69503788</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.876805536190168e-14</v>
+        <v>7.093316009681094e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>13356264.69503788</v>
+        <v>3.348029766341216</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.093316009681094e-06</v>
+        <v>0.0001578873711930707</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>3.348029766341216</v>
+        <v>8.748722663769353</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001578873711930707</v>
+        <v>1.352353563244886</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.748722663769353</v>
+        <v>0.01208472279753383</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.352353563244886</v>
+        <v>2.864041087278772</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01208472279753383</v>
+        <v>0.9288244608352786</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.864041087278772</v>
+        <v>1.919441863071174</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9288244608352786</v>
+        <v>9</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.919441863071174</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1510383870854136</v>
       </c>
     </row>
@@ -4436,72 +4322,66 @@
         <v>6.54605249724037e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.05722511803202276</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.187085392915103</v>
+        <v>2.81313171207927e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>0.00483650444656023</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.81313171207927e-06</v>
+        <v>0.3111067140694768</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.00483650444656023</v>
+        <v>0.09679530507414254</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.3111067140694768</v>
+        <v>1.402818239585087</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.09679530507414254</v>
+        <v>1.360745425981064</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.317517749065791</v>
+        <v>3.811962819449584</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.360745425981064</v>
+        <v>1.860816306161428e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.811962819449584</v>
+        <v>13579904.6407848</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.860816306161428e-14</v>
+        <v>7.001036077458862e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>13579904.6407848</v>
+        <v>3.431602248276226</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.001036077458862e-06</v>
+        <v>0.0001621360654103055</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3.431602248276226</v>
+        <v>10.92857594763818</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001621360654103055</v>
+        <v>1.141407901488136</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.92857594763818</v>
+        <v>0.01936452190863852</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.141407901488136</v>
+        <v>2.744753806024318</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01936452190863852</v>
+        <v>0.9288524782128174</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.744753806024318</v>
+        <v>1.909625693433434</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9288524782128174</v>
+        <v>9</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.909625693433434</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1524955619362203</v>
       </c>
     </row>
@@ -4516,72 +4396,66 @@
         <v>6.598657687444581e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.06387012806388041</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.200448433277159</v>
+        <v>2.813583669431135e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>0.00842334211445722</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.813583669431135e-06</v>
+        <v>0.3047669751395868</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.00842334211445722</v>
+        <v>0.09293963373280517</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.3047669751395868</v>
+        <v>1.419554572352528</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.09293963373280517</v>
+        <v>1.377399295252276</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.332567023147922</v>
+        <v>3.809581355353028</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.377399295252276</v>
+        <v>1.658431866036339e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.809581355353028</v>
+        <v>15144460.89195805</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.658431866036339e-14</v>
+        <v>6.338615361762588e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>15144460.89195805</v>
+        <v>3.803691359872927</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.338615361762588e-06</v>
+        <v>0.0001576799478838695</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3.803691359872927</v>
+        <v>12.91072371593441</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001576799478838695</v>
+        <v>1.08427401880744</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>12.91072371593441</v>
+        <v>0.02628316386646374</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.08427401880744</v>
+        <v>2.810111850767497</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02628316386646374</v>
+        <v>0.9302400150223799</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.810111850767497</v>
+        <v>1.941133442609887</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9302400150223799</v>
+        <v>9</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.941133442609887</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1632954608178384</v>
       </c>
     </row>
@@ -4596,72 +4470,66 @@
         <v>6.650179219008955e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.05549598453833522</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.232810056109483</v>
+        <v>2.814196390222757e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>0.009576935344159531</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.814196390222757e-06</v>
+        <v>0.3010869059808332</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.009576935344159531</v>
+        <v>0.09073297605889628</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.3010869059808332</v>
+        <v>1.506353925698983</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.09073297605889628</v>
+        <v>1.35327963296706</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.409586088578265</v>
+        <v>4.029313887912108</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.35327963296706</v>
+        <v>1.482483736433303e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.029313887912108</v>
+        <v>14341646.24766766</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.482483736433303e-14</v>
+        <v>7.294105737227585e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>14341646.24766766</v>
+        <v>3.049214312045139</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>7.294105737227585e-06</v>
+        <v>0.000165878228349598</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3.049214312045139</v>
+        <v>11.7339684490996</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000165878228349598</v>
+        <v>1.435211896115733</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.7339684490996</v>
+        <v>0.02283911233034863</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.435211896115733</v>
+        <v>3.028769320606147</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02283911233034863</v>
+        <v>0.9411035691776435</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.028769320606147</v>
+        <v>1.862867849986932</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9411035691776435</v>
+        <v>8</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.862867849986932</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1726344066658629</v>
       </c>
     </row>
@@ -4676,72 +4544,66 @@
         <v>6.683155510226693e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.03592742536438401</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.261601295888927</v>
+        <v>2.81481492883458e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>0.008629454449277544</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.81481492883458e-06</v>
+        <v>0.3004411454284536</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.008629454449277544</v>
+        <v>0.09033106071330781</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.3004411454284536</v>
+        <v>1.512477163857712</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.09033106071330781</v>
+        <v>1.359289640194243</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.414082801180444</v>
+        <v>4.725273945957419</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.359289640194243</v>
+        <v>8.369110472823276e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.725273945957419</v>
+        <v>24926981.50447458</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.369110472823276e-15</v>
+        <v>4.209020872687133e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>24926981.50447458</v>
+        <v>5.200183674326041</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.209020872687133e-06</v>
+        <v>0.0001185205093583865</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>5.200183674326041</v>
+        <v>9.110731456274156</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001185205093583865</v>
+        <v>1.779912380287348</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.110731456274156</v>
+        <v>0.009837845566762763</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.779912380287348</v>
+        <v>3.361819997993549</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.009837845566762763</v>
+        <v>0.9416176449171494</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.361819997993549</v>
+        <v>1.890003720779481</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9416176449171494</v>
+        <v>11</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.890003720779481</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2055834379570553</v>
       </c>
     </row>
@@ -4756,72 +4618,66 @@
         <v>6.697624985465701e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.01509734220022785</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.276106674970407</v>
+        <v>2.815329351519661e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>0.006570799199119648</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.815329351519661e-06</v>
+        <v>0.3012177542404165</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.006570799199119648</v>
+        <v>0.09077136709973961</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.3012177542404165</v>
+        <v>1.568401061331404</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.09077136709973961</v>
+        <v>1.5097911285787</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.469383502212745</v>
+        <v>4.113297824054403</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.5097911285787</v>
+        <v>5.673716984076599e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.113297824054403</v>
+        <v>36232431.61689474</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.673716984076599e-15</v>
+        <v>2.954960052647884e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>36232431.61689474</v>
+        <v>7.448393818133527</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.954960052647884e-06</v>
+        <v>0.000103572952359792</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>7.448393818133527</v>
+        <v>6.419962531063121</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.000103572952359792</v>
+        <v>2.024010320896305</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>6.419962531063121</v>
+        <v>0.004268854404721099</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>2.024010320896305</v>
+        <v>3.428960862229766</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.004268854404721099</v>
+        <v>0.9471931233478132</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.428960862229766</v>
+        <v>1.873604746052164</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9471931233478132</v>
+        <v>11</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.873604746052164</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2128052151804034</v>
       </c>
     </row>
@@ -4836,72 +4692,66 @@
         <v>6.701774093104369e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.0001851990409338295</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.280417642541346</v>
+        <v>2.81567955054188e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>0.003642604515393902</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.81567955054188e-06</v>
+        <v>0.3020750522398452</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.003642604515393902</v>
+        <v>0.0912606010759245</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.3020750522398452</v>
+        <v>1.58116002725223</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0912606010759245</v>
+        <v>1.656611498732055</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.483683701774229</v>
+        <v>4.228990428909005</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.656611498732055</v>
+        <v>5.36753117700127e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.228990428909005</v>
+        <v>37252329.67362785</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.36753117700127e-15</v>
+        <v>2.871654673564195e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>37252329.67362785</v>
+        <v>7.448716600308767</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.871654673564195e-06</v>
+        <v>0.0001029608189161001</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7.448716600308767</v>
+        <v>7.014586485922095</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001029608189161001</v>
+        <v>1.586178429667377</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.014586485922095</v>
+        <v>0.005066127744905449</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.586178429667377</v>
+        <v>3.347343689515133</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.005066127744905449</v>
+        <v>0.9494326810708983</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.347343689515133</v>
+        <v>1.838040796300451</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9494326810708983</v>
+        <v>11</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.838040796300451</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2128625858188737</v>
       </c>
     </row>
@@ -4916,72 +4766,66 @@
         <v>6.702317760326769e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.004462027339354593</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.280959223114614</v>
+        <v>2.815775694573318e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.001078956036047349</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.815775694573318e-06</v>
+        <v>0.3021591389267561</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.001078956036047349</v>
+        <v>0.09129791024035393</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.3021591389267561</v>
+        <v>1.596235733037344</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.09129791024035393</v>
+        <v>1.532608721328496</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.502363938994343</v>
+        <v>4.23260553481802</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.532608721328496</v>
+        <v>5.358366180703679e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.23260553481802</v>
+        <v>37283242.55859555</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.358366180703679e-15</v>
+        <v>2.885569728677697e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>37283242.55859555</v>
+        <v>7.448344267199567</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.885569728677697e-06</v>
+        <v>0.0001051084360175335</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.448344267199567</v>
+        <v>9.972107549791156</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001051084360175335</v>
+        <v>1.35723713978997</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.972107549791156</v>
+        <v>0.01045229073857414</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.35723713978997</v>
+        <v>3.193547064556949</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01045229073857414</v>
+        <v>0.9505474740195178</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.193547064556949</v>
+        <v>1.832859398823086</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9505474740195178</v>
+        <v>8</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.832859398823086</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.220654791103234</v>
       </c>
     </row>
@@ -4996,72 +4840,66 @@
         <v>6.700752558962777e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.005427848343223323</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.279362394877402</v>
+        <v>2.815552600552958e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.004948783890440369</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.815552600552958e-06</v>
+        <v>0.3019785034961742</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.004948783890440369</v>
+        <v>0.09121514387318959</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.3019785034961742</v>
+        <v>1.598970471135653</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.09121514387318959</v>
+        <v>1.515737691078858</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.506717869158133</v>
+        <v>4.25044335353383</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.515737691078858</v>
+        <v>5.313485685552912e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.25044335353383</v>
+        <v>38232914.00926526</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.313485685552912e-15</v>
+        <v>2.826099403250472e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>38232914.00926526</v>
+        <v>7.767018060200639</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.826099403250472e-06</v>
+        <v>0.0001105326977412123</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>7.767018060200639</v>
+        <v>11.8613160308753</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001105326977412123</v>
+        <v>1.272653359196995</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.8613160308753</v>
+        <v>0.01555093565922247</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.272653359196995</v>
+        <v>3.093534148440019</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01555093565922247</v>
+        <v>0.9513449824977118</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.093534148440019</v>
+        <v>1.872017194810452</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9513449824977118</v>
+        <v>8</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.872017194810452</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2326681366388368</v>
       </c>
     </row>
@@ -5076,72 +4914,66 @@
         <v>6.698832981485366e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.02050211465148923</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.27715593079352</v>
+        <v>2.815212909784244e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.004671119567106772</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.815212909784244e-06</v>
+        <v>0.3019480044685693</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.004671119567106772</v>
+        <v>0.09119291588559936</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.3019480044685693</v>
+        <v>1.571925556213597</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.09119291588559936</v>
+        <v>1.507941538579005</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.482645385624122</v>
+        <v>4.287320195046804</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.507941538579005</v>
+        <v>5.222472248517148e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.287320195046804</v>
+        <v>40588912.04214915</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.222472248517148e-15</v>
+        <v>2.643049690419717e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>40588912.04214915</v>
+        <v>8.603812985595027</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.643049690419717e-06</v>
+        <v>0.0001010893355878622</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>8.603812985595027</v>
+        <v>9.426424398414362</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001010893355878622</v>
+        <v>1.560903969038991</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.426424398414362</v>
+        <v>0.008982543305779474</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.560903969038991</v>
+        <v>3.353423301790887</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.008982543305779474</v>
+        <v>0.9472179838128086</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.353423301790887</v>
+        <v>1.858985234777764</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9472179838128086</v>
+        <v>9</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.858985234777764</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2306855807758916</v>
       </c>
     </row>
@@ -5156,72 +4988,66 @@
         <v>6.699771612852424e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.03251850912877447</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.277682531979262</v>
+        <v>2.814943463195371e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.003580934832563518</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.814943463195371e-06</v>
+        <v>0.3014230181852416</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.003580934832563518</v>
+        <v>0.09086439880176206</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.3014230181852416</v>
+        <v>1.570211206675002</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.09086439880176206</v>
+        <v>1.469233904194595</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.480137552467321</v>
+        <v>4.380001982912434</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.469233904194595</v>
+        <v>5.003793353966123e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.380001982912434</v>
+        <v>43050010.35563935</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.003793353966123e-15</v>
+        <v>2.503083968562936e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>43050010.35563935</v>
+        <v>9.273547193874309</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.503083968562936e-06</v>
+        <v>0.0001085264548887144</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>9.273547193874309</v>
+        <v>7.025169343568454</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001085264548887144</v>
+        <v>2.204041219814845</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.025169343568454</v>
+        <v>0.005356106595417451</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>2.204041219814845</v>
+        <v>3.461289631777685</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.005356106595417451</v>
+        <v>0.9475526203124018</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.461289631777685</v>
+        <v>1.835293735725555</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9475526203124018</v>
+        <v>9</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.835293735725555</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2138098238355108</v>
       </c>
     </row>
@@ -5236,72 +5062,66 @@
         <v>6.704704142882752e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.04250481535181806</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.282030963110831</v>
+        <v>2.814708307181635e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.003650699250702068</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.814708307181635e-06</v>
+        <v>0.3012481357857534</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.003650699250702068</v>
+        <v>0.09075915390208895</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.3012481357857534</v>
+        <v>1.568625205747646</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.09075915390208895</v>
+        <v>1.479712788108344</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.476649377981445</v>
+        <v>4.543710192684395</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.479712788108344</v>
+        <v>3.905064708251036e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.543710192684395</v>
+        <v>55391781.83081336</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.905064708251036e-15</v>
+        <v>1.950407521103844e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>55391781.83081336</v>
+        <v>11.98171281666094</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.950407521103844e-06</v>
+        <v>0.0001088572614756737</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>11.98171281666094</v>
+        <v>7.328288779447972</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001088572614756737</v>
+        <v>1.754235155601428</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.328288779447972</v>
+        <v>0.005846050387904531</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.754235155601428</v>
+        <v>3.390840038888993</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.005846050387904531</v>
+        <v>0.9476500401877073</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.390840038888993</v>
+        <v>1.857052383956156</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9476500401877073</v>
+        <v>12</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.857052383956156</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2145997530920776</v>
       </c>
     </row>
@@ -5316,72 +5136,66 @@
         <v>6.71522712945593e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.05242029791403045</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.290930582784382</v>
+        <v>2.814440016872679e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.004495346884520907</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.814440016872679e-06</v>
+        <v>0.3012287380072932</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.004495346884520907</v>
+        <v>0.0907562268200449</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.3012287380072932</v>
+        <v>1.616779495667462</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.0907562268200449</v>
+        <v>1.761809969041891</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.524389089336619</v>
+        <v>3.99079317674917</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.761809969041891</v>
+        <v>3.75615058658171e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.99079317674917</v>
+        <v>56273223.00465644</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.75615058658171e-15</v>
+        <v>1.955586476067388e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>56273223.00465644</v>
+        <v>11.89451051511633</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.955586476067388e-06</v>
+        <v>0.0001268472095680004</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.89451051511633</v>
+        <v>10.30224321508261</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001268472095680004</v>
+        <v>1.301609205626382</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.30224321508261</v>
+        <v>0.01346308274018409</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.301609205626382</v>
+        <v>3.108632887216043</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01346308274018409</v>
+        <v>0.9506783070203416</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.108632887216043</v>
+        <v>1.821213768031841</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9506783070203416</v>
+        <v>11</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.821213768031841</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.208926338723433</v>
       </c>
     </row>
@@ -5396,72 +5210,66 @@
         <v>6.733510660530834e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.06314035061565049</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.304972165847172</v>
+        <v>2.814091286230168e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.006059335059924711</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.814091286230168e-06</v>
+        <v>0.3009219004565757</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.006059335059924711</v>
+        <v>0.09058950240506211</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.3009219004565757</v>
+        <v>1.638915226900355</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.09058950240506211</v>
+        <v>1.626662041645864</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.547175743828304</v>
+        <v>3.995509973119886</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.626662041645864</v>
+        <v>3.747287367667826e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.995509973119886</v>
+        <v>56118875.1850583</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.747287367667826e-15</v>
+        <v>1.970793035125136e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>56118875.1850583</v>
+        <v>11.80143760076573</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.970793035125136e-06</v>
+        <v>0.0001352716516263077</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>11.80143760076573</v>
+        <v>11.1794516784356</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001352716516263077</v>
+        <v>1.16663945212888</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.1794516784356</v>
+        <v>0.01690626993535545</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.16663945212888</v>
+        <v>2.924542095149542</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01690626993535545</v>
+        <v>0.9515409488705987</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.924542095149542</v>
+        <v>1.80160031164422</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9515409488705987</v>
+        <v>11</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.80160031164422</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2064851944095388</v>
       </c>
     </row>
@@ -5476,72 +5284,66 @@
         <v>6.762395207087827e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.07618525003561363</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.325035062825553</v>
+        <v>2.813600235183977e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.008645257005813181</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.813600235183977e-06</v>
+        <v>0.2999568355614659</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.008645257005813181</v>
+        <v>0.09004773881338253</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2999568355614659</v>
+        <v>1.66207742522002</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.09004773881338253</v>
+        <v>1.531115152711131</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.576779454919717</v>
+        <v>4.061837654819379</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.531115152711131</v>
+        <v>3.625904108091252e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.061837654819379</v>
+        <v>57789266.68387077</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.625904108091252e-15</v>
+        <v>1.916771731260184e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>57789266.68387077</v>
+        <v>12.10906698027914</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.916771731260184e-06</v>
+        <v>0.0001269271563613644</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>12.10906698027914</v>
+        <v>9.222800462541532</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001269271563613644</v>
+        <v>1.233334761517743</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.222800462541532</v>
+        <v>0.01079643005979982</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.233334761517743</v>
+        <v>3.076843008213321</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01079643005979982</v>
+        <v>0.951419844366312</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.076843008213321</v>
+        <v>1.837835238967371</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.951419844366312</v>
+        <v>8</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.837835238967371</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2034325044743633</v>
       </c>
     </row>
@@ -5556,72 +5358,66 @@
         <v>6.803363479222525e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.09329428000265781</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.35090627112109</v>
+        <v>2.812912892774329e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.01152362374713113</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.812912892774329e-06</v>
+        <v>0.298058250972112</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.01152362374713113</v>
+        <v>0.08897086499247549</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.298058250972112</v>
+        <v>1.749269842362541</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.08897086499247549</v>
+        <v>1.526068913134504</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.669959826040674</v>
+        <v>4.402425070217336</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.526068913134504</v>
+        <v>3.086579668996367e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.402425070217336</v>
+        <v>63411678.21158374</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.086579668996367e-15</v>
+        <v>1.820415071275573e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>63411678.21158374</v>
+        <v>12.41126319388108</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.820415071275573e-06</v>
+        <v>0.0001385665043664934</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>12.41126319388108</v>
+        <v>7.533072909251726</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001385665043664934</v>
+        <v>1.875935315226766</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.533072909251726</v>
+        <v>0.007863259398422216</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.875935315226766</v>
+        <v>3.184021855333526</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.007863259398422216</v>
+        <v>0.9558172329337716</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.184021855333526</v>
+        <v>1.733827234025805</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9558172329337716</v>
+        <v>7</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.733827234025805</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1930342274103775</v>
       </c>
     </row>
@@ -5636,72 +5432,66 @@
         <v>6.852437831954267e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.1135341217629849</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.379067793474981</v>
+        <v>2.812076174465569e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.01258053010233957</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.812076174465569e-06</v>
+        <v>0.2959324373016864</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.01258053010233957</v>
+        <v>0.08773336881587435</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.2959324373016864</v>
+        <v>1.755098795670769</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.08773336881587435</v>
+        <v>1.647923174228066</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.677121567941234</v>
+        <v>3.968235721654904</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.647923174228066</v>
+        <v>1.549294239884925e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.968235721654904</v>
+        <v>123584613.7537818</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.549294239884925e-15</v>
+        <v>9.349376173145239e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>123584613.7537818</v>
+        <v>23.66261378797058</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.349376173145239e-07</v>
+        <v>0.0001257279897002685</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>23.66261378797058</v>
+        <v>7.756460514678363</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001257279897002685</v>
+        <v>1.668021064341865</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.756460514678363</v>
+        <v>0.007564132775644196</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.668021064341865</v>
+        <v>3.231530833657781</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.007564132775644196</v>
+        <v>0.9554721249689102</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.231530833657781</v>
+        <v>1.728970302397275</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9554721249689102</v>
+        <v>8</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.728970302397275</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2179393797486549</v>
       </c>
     </row>
@@ -5716,72 +5506,66 @@
         <v>6.907600258055709e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.1301175785573095</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.406507229778272</v>
+        <v>2.811230695014966e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.01186069744280683</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.811230695014966e-06</v>
+        <v>0.2932880157552934</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.01186069744280683</v>
+        <v>0.08615462158043515</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.2932880157552934</v>
+        <v>1.759383625526895</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.08615462158043515</v>
+        <v>1.793684821416188</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.684415258854923</v>
+        <v>3.837953593696447</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.793684821416188</v>
+        <v>1.408694989475404e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.837953593696447</v>
+        <v>134795937.8036169</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.408694989475404e-15</v>
+        <v>8.584442298030216e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>134795937.8036169</v>
+        <v>25.59591026692429</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>8.584442298030216e-07</v>
+        <v>0.0001147397504269282</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>25.59591026692429</v>
+        <v>9.578579928007393</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001147397504269282</v>
+        <v>1.384275466216795</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.578579928007393</v>
+        <v>0.01052727955685928</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.384275466216795</v>
+        <v>3.167254881824717</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01052727955685928</v>
+        <v>0.9563319997447602</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.167254881824717</v>
+        <v>1.735226851885533</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9563319997447602</v>
+        <v>8</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.735226851885533</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2489878997274358</v>
       </c>
     </row>
@@ -5796,72 +5580,66 @@
         <v>6.969706618823749e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.1374152930582135</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.430022501443685</v>
+        <v>2.810453489108859e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.01052544834419297</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.810453489108859e-06</v>
+        <v>0.2899417214324944</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.01052544834419297</v>
+        <v>0.08417213179042388</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.2899417214324944</v>
+        <v>1.755215379856133</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.08417213179042388</v>
+        <v>1.907989755345956</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.681354151162965</v>
+        <v>4.010758498016697</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.907989755345956</v>
+        <v>1.289921803122194e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.010758498016697</v>
+        <v>151496429.0216278</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.289921803122194e-15</v>
+        <v>7.672845375114693e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>151496429.0216278</v>
+        <v>29.6052120184535</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>7.672845375114693e-07</v>
+        <v>0.0001067167888262426</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>29.6052120184535</v>
+        <v>8.422796356301506</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001067167888262426</v>
+        <v>1.430517032137184</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.422796356301506</v>
+        <v>0.007570862343721436</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.430517032137184</v>
+        <v>3.23020406906637</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.007570862343721436</v>
+        <v>0.9563283060525755</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.23020406906637</v>
+        <v>1.708551362158518</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9563283060525755</v>
+        <v>13</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.708551362158518</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2501425355902893</v>
       </c>
     </row>
@@ -5876,72 +5654,66 @@
         <v>7.035204762298627e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.1347969236690706</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.445024286412099</v>
+        <v>2.809775036252351e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.008857286642849344</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.809775036252351e-06</v>
+        <v>0.2863240486884814</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.008857286642849344</v>
+        <v>0.08205608741648754</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.2863240486884814</v>
+        <v>1.767671183556557</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.08205608741648754</v>
+        <v>1.768375317882625</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.698345450273824</v>
+        <v>4.012555577809529</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.768375317882625</v>
+        <v>1.288766642394055e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.012555577809529</v>
+        <v>151319251.0749078</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.288766642394055e-15</v>
+        <v>7.700539619652465e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>151319251.0749078</v>
+        <v>29.50955448697114</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>7.700539619652465e-07</v>
+        <v>0.0001054780187954221</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>29.50955448697114</v>
+        <v>6.798732674182967</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001054780187954221</v>
+        <v>1.354606813143859</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>6.798732674182967</v>
+        <v>0.004875485778287772</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.354606813143859</v>
+        <v>3.272521420276493</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.004875485778287772</v>
+        <v>0.9572141497404238</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.272521420276493</v>
+        <v>1.701514823143542</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9572141497404238</v>
+        <v>10</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.701514823143542</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2459642140207687</v>
       </c>
     </row>
@@ -5956,72 +5728,66 @@
         <v>7.09794248521056e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.1253195008135052</v>
+        <v>2.244749083243092e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.450100392095384</v>
+        <v>2.809210459171368e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.244749083243092e-07</v>
+        <v>-0.00725928245798649</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.809210459171368e-06</v>
+        <v>0.2830382279918219</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.00725928245798649</v>
+        <v>0.08016072566524744</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.2830382279918219</v>
+        <v>1.768568889784752</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.08016072566524744</v>
+        <v>1.699715393391055</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.696640276575873</v>
+        <v>4.13070430939779</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.699715393391055</v>
+        <v>1.207476774787431e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.13070430939779</v>
+        <v>167267279.1511087</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1.207476774787431e-15</v>
+        <v>7.012801041718285e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>167267279.1511087</v>
+        <v>33.78319897664156</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>7.012801041718285e-07</v>
+        <v>0.0001112885910536794</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>33.78319897664156</v>
+        <v>6.815802338330379</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001112885910536794</v>
+        <v>1.34370280353456</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>6.815802338330379</v>
+        <v>0.005169929472196589</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.34370280353456</v>
+        <v>3.191345134667887</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.005169929472196589</v>
+        <v>0.9576211728007267</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.191345134667887</v>
+        <v>1.711628426629285</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9576211728007267</v>
+        <v>13</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.711628426629285</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2492602531158997</v>
       </c>
     </row>
@@ -6036,72 +5802,66 @@
         <v>7.159024629602123e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.1111009903008854</v>
+        <v>2.305013746070387e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.446261736623501</v>
+        <v>2.808716255502946e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.305013746070387e-07</v>
+        <v>-0.006929231901266064</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.808716255502946e-06</v>
+        <v>0.2804987432861711</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.006929231901266064</v>
+        <v>0.07872535301592103</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.2804987432861711</v>
+        <v>1.767797674771776</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.07872535301592103</v>
+        <v>1.786707839045461</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.697370325236079</v>
+        <v>4.200370964675162</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.786707839045461</v>
+        <v>1.167754920907954e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.200370964675162</v>
+        <v>172755771.6703691</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.167754920907954e-15</v>
+        <v>6.792903990258095e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>172755771.6703691</v>
+        <v>34.85112788501088</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>6.792903990258095e-07</v>
+        <v>0.0001205377685566629</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>34.85112788501088</v>
+        <v>7.537859833708971</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001205377685566629</v>
+        <v>1.381690215100745</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>7.537859833708971</v>
+        <v>0.006848875354271101</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.381690215100745</v>
+        <v>3.025598601114643</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.006848875354271101</v>
+        <v>0.9567937703183376</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.025598601114643</v>
+        <v>1.705025647162332</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9567937703183376</v>
+        <v>13</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.705025647162332</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.263091911959091</v>
       </c>
     </row>
@@ -6116,72 +5876,66 @@
         <v>7.231063671683338e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.08970246330398969</v>
+        <v>2.417487371416424e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.431389198676902</v>
+        <v>2.808180951193466e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.417487371416424e-07</v>
+        <v>-0.008211157722327698</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.808180951193466e-06</v>
+        <v>0.2782137864196266</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.008211157722327698</v>
+        <v>0.07746862205823528</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.2782137864196266</v>
+        <v>1.763368394100058</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.07746862205823528</v>
+        <v>1.766256418132501</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.68998587008713</v>
+        <v>4.246759323563216</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.766256418132501</v>
+        <v>1.142382926357058e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.246759323563216</v>
+        <v>175579210.482387</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.142382926357058e-15</v>
+        <v>6.674934721825345e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>175579210.482387</v>
+        <v>35.21744842981902</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>6.674934721825345e-07</v>
+        <v>0.0001237232720016897</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>35.21744842981902</v>
+        <v>7.873223608509826</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001237232720016897</v>
+        <v>1.323917446347465</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>7.873223608509826</v>
+        <v>0.007669314880408386</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.323917446347465</v>
+        <v>2.945726532704322</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.007669314880408386</v>
+        <v>0.9551542024325225</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.945726532704322</v>
+        <v>1.704501841858807</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9551542024325225</v>
+        <v>18</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.704501841858807</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.283329320534903</v>
       </c>
     </row>
@@ -6196,72 +5950,66 @@
         <v>7.326844828852775e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.05800644895683586</v>
+        <v>2.526519759840233e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.40217558234854</v>
+        <v>2.807505336772485e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.526519759840233e-07</v>
+        <v>-0.01044840093216002</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.807505336772485e-06</v>
+        <v>0.2751605910616958</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.01044840093216002</v>
+        <v>0.0758212741459631</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.2751605910616958</v>
+        <v>1.766392197639515</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.0758212741459631</v>
+        <v>1.679339178130744</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.692019807967282</v>
+        <v>4.52141368965558</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.679339178130744</v>
+        <v>1.000974929257649e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.52141368965558</v>
+        <v>196472335.1083913</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1.000974929257649e-15</v>
+        <v>5.956566883907072e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>196472335.1083913</v>
+        <v>38.63901207619312</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>5.956566883907072e-07</v>
+        <v>0.0001146468857969545</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>38.63901207619312</v>
+        <v>6.958014325881675</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001146468857969545</v>
+        <v>1.382293071477164</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>6.958014325881675</v>
+        <v>0.005550510128217232</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.382293071477164</v>
+        <v>3.218024201276771</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.005550510128217232</v>
+        <v>0.9547036788720993</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.218024201276771</v>
+        <v>1.729588875984498</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9547036788720993</v>
+        <v>18</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.729588875984498</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2888199283878788</v>
       </c>
     </row>
@@ -6276,72 +6024,66 @@
         <v>7.451349973261033e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.0167051406630318</v>
+        <v>2.61564293673271e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.360677601460149</v>
+        <v>2.806643242878911e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.61564293673271e-07</v>
+        <v>-0.01293138688162156</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.806643242878911e-06</v>
+        <v>0.270834126883609</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.01293138688162156</v>
+        <v>0.07351735759042262</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.270834126883609</v>
+        <v>1.81956423178855</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.07351735759042262</v>
+        <v>1.811662900998177</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.754345285245687</v>
+        <v>4.06815852325416</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.811662900998177</v>
+        <v>9.527349431678006e-16</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.06815852325416</v>
+        <v>195586362.4882376</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9.527349431678006e-16</v>
+        <v>6.087154496617469e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>195586362.4882376</v>
+        <v>36.44594651664929</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>6.087154496617469e-07</v>
+        <v>0.0001039362251458122</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>36.44594651664929</v>
+        <v>6.068862439942817</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001039362251458122</v>
+        <v>1.375448115647988</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>6.068862439942817</v>
+        <v>0.003828084599276475</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.375448115647988</v>
+        <v>3.341951499158518</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.003828084599276475</v>
+        <v>0.9577100205912805</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.341951499158518</v>
+        <v>1.650445241012783</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9577100205912805</v>
+        <v>17</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.650445241012783</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.3198869267387217</v>
       </c>
     </row>
@@ -6356,72 +6098,66 @@
         <v>7.604244090501073e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.02874307927697958</v>
+        <v>2.673642911710807e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.318148756138862</v>
+        <v>2.80556216749128e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.673642911710807e-07</v>
+        <v>-0.01590712556814125</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.80556216749128e-06</v>
+        <v>0.2649360368541154</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.01590712556814125</v>
+        <v>0.07044201926793027</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.2649360368541154</v>
+        <v>1.833305471332624</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.07044201926793027</v>
+        <v>1.780323659394229</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.773281900654178</v>
+        <v>4.140721567671452</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.780323659394229</v>
+        <v>6.490515867513944e-16</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.140721567671452</v>
+        <v>279343113.0830076</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>6.490515867513944e-16</v>
+        <v>4.254782076091647e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>279343113.0830076</v>
+        <v>50.64716650970024</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>4.254782076091647e-07</v>
+        <v>0.0001130785209495298</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>50.64716650970024</v>
+        <v>7.222370995334637</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001130785209495298</v>
+        <v>1.454149764038803</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>7.222370995334637</v>
+        <v>0.005898474495992555</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.454149764038803</v>
+        <v>3.085254119997104</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.005898474495992555</v>
+        <v>0.9576092360170775</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.085254119997104</v>
+        <v>1.652190091755972</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9576092360170775</v>
+        <v>17</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.652190091755972</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.3405023809583841</v>
       </c>
     </row>
@@ -6798,7 +6534,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.425525432739622</v>
+        <v>1.383729521924402</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.445571925299471</v>
@@ -6887,7 +6623,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.41480261879054</v>
+        <v>1.36458193075278</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.43330337618246</v>
@@ -6976,7 +6712,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.415744234622662</v>
+        <v>1.362674263421347</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.375256708462937</v>
@@ -7065,7 +6801,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.412335762452329</v>
+        <v>1.358283061984104</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.496752553799225</v>
@@ -7154,7 +6890,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.41854052801746</v>
+        <v>1.356873576450366</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.542414479780978</v>
@@ -7243,7 +6979,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.418047637403668</v>
+        <v>1.358059774815254</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.354194136399161</v>
@@ -7332,7 +7068,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.423203886506835</v>
+        <v>1.359028327609405</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.45423087959538</v>
@@ -7421,7 +7157,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.417740139896599</v>
+        <v>1.352731249428105</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.397569413854832</v>
@@ -7510,7 +7246,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.424141849472683</v>
+        <v>1.357991213053394</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.470112793559089</v>
@@ -7599,7 +7335,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.452276904247228</v>
+        <v>1.377596517679014</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.654312397065332</v>
@@ -7688,7 +7424,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.481710247001113</v>
+        <v>1.410343328142518</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.588700413421416</v>
@@ -7777,7 +7513,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.484667651539258</v>
+        <v>1.414562956138831</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.553766527871405</v>
@@ -7866,7 +7602,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.479670110053873</v>
+        <v>1.411223814171269</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.596691450392377</v>
@@ -7955,7 +7691,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.460140720092909</v>
+        <v>1.389516866321238</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.644016882441551</v>
@@ -8044,7 +7780,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.468291326184183</v>
+        <v>1.401292482904109</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.630993183238214</v>
@@ -8133,7 +7869,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.479292900373476</v>
+        <v>1.4124168848521</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.494018491561007</v>
@@ -8222,7 +7958,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.48401126659287</v>
+        <v>1.423533403711263</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.620435575288584</v>
@@ -8311,7 +8047,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.463509389022511</v>
+        <v>1.41250671478003</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.459350408145454</v>
@@ -8400,7 +8136,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.463446316093458</v>
+        <v>1.412526610360363</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.476752640575533</v>
@@ -8489,7 +8225,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.468377546200184</v>
+        <v>1.41409537894272</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.502335214417853</v>
@@ -8578,7 +8314,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.481953973012527</v>
+        <v>1.418812634505283</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.526229762639582</v>
@@ -8667,7 +8403,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.461729726688083</v>
+        <v>1.400808152322511</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.537212361688124</v>
@@ -8756,7 +8492,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.471106600800969</v>
+        <v>1.405323667087182</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.580970892196759</v>
@@ -8845,7 +8581,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.470994761967298</v>
+        <v>1.405538760429342</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.610449442982299</v>
@@ -8934,7 +8670,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.461021342430606</v>
+        <v>1.39521328031378</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.68500724889725</v>
@@ -9023,7 +8759,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.450460673371205</v>
+        <v>1.380894363980771</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.385775373306412</v>
@@ -9112,7 +8848,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.463066434165061</v>
+        <v>1.389688670689354</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.48000846110748</v>
@@ -9201,7 +8937,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467750812132839</v>
+        <v>1.388600380585003</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.447740886521665</v>
@@ -9290,7 +9026,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.482662576831311</v>
+        <v>1.406918757005847</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.461795034383968</v>
@@ -9379,7 +9115,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.482167607338089</v>
+        <v>1.403566120152224</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.369188253696113</v>
@@ -9468,7 +9204,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.482817895405869</v>
+        <v>1.400122501591351</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.251037375254693</v>
@@ -9557,7 +9293,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.498184153255423</v>
+        <v>1.412983756470695</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.394078166261375</v>
@@ -9646,7 +9382,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.50973183451292</v>
+        <v>1.425842613008786</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.481215744152072</v>
@@ -9735,7 +9471,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.508506062560101</v>
+        <v>1.440183702723913</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.365682205118732</v>
@@ -9824,7 +9560,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508649378954731</v>
+        <v>1.446866885113757</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.560562280394105</v>
@@ -9913,7 +9649,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.512200327402101</v>
+        <v>1.447766809225039</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.490721139664348</v>
@@ -10002,7 +9738,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.544121124103307</v>
+        <v>1.476768427402247</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.395577949533615</v>
@@ -10091,7 +9827,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.551481470567465</v>
+        <v>1.483799622078507</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.529726947734496</v>
@@ -10180,7 +9916,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.558298299960113</v>
+        <v>1.483408865424804</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.398895427099094</v>
@@ -10269,7 +10005,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.566396060856033</v>
+        <v>1.490056397788224</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.405954324500051</v>
@@ -10358,7 +10094,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.576140667437395</v>
+        <v>1.498136118483568</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.394473776161438</v>
@@ -10447,7 +10183,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.5765127751579</v>
+        <v>1.504612684730327</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.458802279526977</v>
@@ -10536,7 +10272,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.60507228582257</v>
+        <v>1.53295646923956</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.707160781812448</v>
@@ -10625,7 +10361,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.55662769080594</v>
+        <v>1.498167924263741</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.167304029133291</v>
@@ -10714,7 +10450,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.551524510713923</v>
+        <v>1.497959068286192</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.229355814821935</v>
@@ -10803,7 +10539,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.554107211295139</v>
+        <v>1.488841693044761</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.800740581174693</v>
@@ -10892,7 +10628,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.550501384580455</v>
+        <v>1.477138238845791</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.842638572813452</v>
@@ -10981,7 +10717,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56084113317773</v>
+        <v>1.47316740811833</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.844447341041866</v>
@@ -11070,7 +10806,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.566241529109758</v>
+        <v>1.472373826388296</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.801628357091652</v>
@@ -11159,7 +10895,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.545317967454853</v>
+        <v>1.452615645359149</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.813757847222604</v>
@@ -11248,7 +10984,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.545781335267844</v>
+        <v>1.456952858941766</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.79192939265075</v>
@@ -11337,7 +11073,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.52707899011393</v>
+        <v>1.437050416753346</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.81112724565751</v>
@@ -11426,7 +11162,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.516177567117399</v>
+        <v>1.423441005142197</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.831639754658805</v>
@@ -11515,7 +11251,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.494478201268732</v>
+        <v>1.40367375923174</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.81330366579196</v>
@@ -11604,7 +11340,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.487851923800611</v>
+        <v>1.399769372288483</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.822884141720466</v>
@@ -11693,7 +11429,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.48504694754218</v>
+        <v>1.400306326870329</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.811606913718629</v>
@@ -11782,7 +11518,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.476004394351418</v>
+        <v>1.393167184986568</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.807794248777093</v>
@@ -11871,7 +11607,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.477119900793563</v>
+        <v>1.393209089024153</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.801664693327413</v>
@@ -11960,7 +11696,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.505152274115913</v>
+        <v>1.404389767610291</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.799060125722245</v>
@@ -12049,7 +11785,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.516429655212921</v>
+        <v>1.420632177108844</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.790479048339408</v>
@@ -12138,7 +11874,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.493150488647378</v>
+        <v>1.410487097251331</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.389677558008893</v>
@@ -12227,7 +11963,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.487353144072179</v>
+        <v>1.424008971827193</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.233637213982479</v>
@@ -12316,7 +12052,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.463962620570866</v>
+        <v>1.404553657495106</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.371474065501062</v>
@@ -12405,7 +12141,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.460217561280058</v>
+        <v>1.400906591588279</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.470961374755642</v>
@@ -12494,7 +12230,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.475551894474578</v>
+        <v>1.415965126009461</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.433437415324435</v>
@@ -12583,7 +12319,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.463205946311243</v>
+        <v>1.408711242389751</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.529014206354424</v>
@@ -12672,7 +12408,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.47495925041145</v>
+        <v>1.424339686324561</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.38673734017939</v>
@@ -12761,7 +12497,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.483137209134376</v>
+        <v>1.43939591105682</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.444164254470151</v>
@@ -12850,7 +12586,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.501895185114502</v>
+        <v>1.464422853331243</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.311340118656415</v>
@@ -12939,7 +12675,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.510790274916291</v>
+        <v>1.477655812333985</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.332477177458179</v>
@@ -13028,7 +12764,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.501120404485946</v>
+        <v>1.470585629388349</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.438239903672172</v>
@@ -13117,7 +12853,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.483235709995118</v>
+        <v>1.450876676440501</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.321418847534922</v>
@@ -13206,7 +12942,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.480643186347457</v>
+        <v>1.449852202234503</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.271014148299885</v>
@@ -13295,7 +13031,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.50044482315227</v>
+        <v>1.470783710959406</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.332007855277823</v>
@@ -13384,7 +13120,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.498774673929884</v>
+        <v>1.459426568857555</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.355979150607528</v>
@@ -13473,7 +13209,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.525191477163479</v>
+        <v>1.474598354478136</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.201612607638237</v>
@@ -13562,7 +13298,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.528451951863198</v>
+        <v>1.474963451587235</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.454946993474327</v>
@@ -13651,7 +13387,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.567993293707903</v>
+        <v>1.513912039123442</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.499653643839152</v>
@@ -13740,7 +13476,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.568507126329564</v>
+        <v>1.515237976428978</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.482288071451975</v>
@@ -13829,7 +13565,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.549057026925934</v>
+        <v>1.492326821410669</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.352330677580001</v>
@@ -13918,7 +13654,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.567261360012658</v>
+        <v>1.500888210302329</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.233605563149571</v>
@@ -14007,7 +13743,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.575306129139947</v>
+        <v>1.50592508113102</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.299213775189076</v>
@@ -14096,7 +13832,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.577936215559502</v>
+        <v>1.51521786672475</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.325330045292368</v>
@@ -14185,7 +13921,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.555820444856341</v>
+        <v>1.5005245980062</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.336780774629859</v>
@@ -14274,7 +14010,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.559781822779132</v>
+        <v>1.498253465015853</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.4241676080568</v>
@@ -14363,7 +14099,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.563051133668529</v>
+        <v>1.500245291076104</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.287969678260659</v>
@@ -14452,7 +14188,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.559820630378466</v>
+        <v>1.492420773955857</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.298224867012499</v>
@@ -14738,7 +14474,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.449159093591451</v>
+        <v>1.400789222193961</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.696010326032355</v>
@@ -14827,7 +14563,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.446027250488257</v>
+        <v>1.392281288109527</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.752361755136096</v>
@@ -14916,7 +14652,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.442944475877052</v>
+        <v>1.382321831161534</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.676524376056348</v>
@@ -15005,7 +14741,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.460085276458666</v>
+        <v>1.389366701797137</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.533015944418078</v>
@@ -15094,7 +14830,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.464910254418647</v>
+        <v>1.382534792951217</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.62377465204651</v>
@@ -15183,7 +14919,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.46363101572414</v>
+        <v>1.386519119487221</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.417165828560803</v>
@@ -15272,7 +15008,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.453486840465365</v>
+        <v>1.375550324494259</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.781392729022977</v>
@@ -15361,7 +15097,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.446912989684874</v>
+        <v>1.365561878637512</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.760444768899018</v>
@@ -15450,7 +15186,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.447030426848066</v>
+        <v>1.360961413310731</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.893973228759005</v>
@@ -15539,7 +15275,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.475673982580854</v>
+        <v>1.379771779846214</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.795139350584905</v>
@@ -15628,7 +15364,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.487334817170109</v>
+        <v>1.391839233105012</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.818085757309008</v>
@@ -15717,7 +15453,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.4803384850834</v>
+        <v>1.393011217447838</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.853313181060701</v>
@@ -15806,7 +15542,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.470013160630352</v>
+        <v>1.390545698918311</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.872455017759016</v>
@@ -15895,7 +15631,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.455363623968199</v>
+        <v>1.378497255391976</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.800230059858078</v>
@@ -15984,7 +15720,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.452892252628882</v>
+        <v>1.37869288720015</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.884364037551628</v>
@@ -16073,7 +15809,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.454205535847243</v>
+        <v>1.381920864255233</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.693283737725333</v>
@@ -16162,7 +15898,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.464020730367574</v>
+        <v>1.39559546860696</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.703156320373243</v>
@@ -16251,7 +15987,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.45142736539863</v>
+        <v>1.393961943508083</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.91760565435609</v>
@@ -16340,7 +16076,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.458980462521572</v>
+        <v>1.395443694906585</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.611604359057528</v>
@@ -16429,7 +16165,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.460413313203123</v>
+        <v>1.40342370518197</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.749002673373788</v>
@@ -16518,7 +16254,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.470674538610435</v>
+        <v>1.407336655599708</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.49231322496389</v>
@@ -16607,7 +16343,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.458846374206518</v>
+        <v>1.395573600611323</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.733509726696809</v>
@@ -16696,7 +16432,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.457075471233793</v>
+        <v>1.392336508509655</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.67671977236862</v>
@@ -16785,7 +16521,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465552493176848</v>
+        <v>1.398345887794339</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.695743453629059</v>
@@ -16874,7 +16610,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.462181510044035</v>
+        <v>1.394820699389585</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.589588421744703</v>
@@ -16963,7 +16699,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.464995745300068</v>
+        <v>1.392554080170585</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.68485993509979</v>
@@ -17052,7 +16788,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.477960832269681</v>
+        <v>1.402724375512048</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.587209988890769</v>
@@ -17141,7 +16877,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.475547562064516</v>
+        <v>1.39822185184752</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.354732861171364</v>
@@ -17230,7 +16966,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.48214677193594</v>
+        <v>1.410510537830562</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.563016128092487</v>
@@ -17319,7 +17055,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.471649325358882</v>
+        <v>1.40774542666144</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.39606204840295</v>
@@ -17408,7 +17144,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.473745749051682</v>
+        <v>1.411643139931252</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.510392993745306</v>
@@ -17497,7 +17233,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.479075073400844</v>
+        <v>1.41879975922791</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.642092492723311</v>
@@ -17586,7 +17322,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.47222013373917</v>
+        <v>1.424130883590925</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.571138280113197</v>
@@ -17675,7 +17411,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.456048699561046</v>
+        <v>1.422271669213993</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.538137675457939</v>
@@ -17764,7 +17500,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.449678769441543</v>
+        <v>1.421461797444498</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.470237832714763</v>
@@ -17853,7 +17589,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.455805501853944</v>
+        <v>1.429293816789801</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.355212787728411</v>
@@ -17942,7 +17678,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.492330179527497</v>
+        <v>1.461564862601695</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.358525286363399</v>
@@ -18031,7 +17767,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.504172023788381</v>
+        <v>1.470882425381823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.535906582331953</v>
@@ -18120,7 +17856,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.495633301813472</v>
+        <v>1.4641283372141</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.515496255826182</v>
@@ -18209,7 +17945,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.491559183476857</v>
+        <v>1.460126384888837</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.503912073386076</v>
@@ -18298,7 +18034,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.497498567451291</v>
+        <v>1.46325757738588</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.538295639119364</v>
@@ -18387,7 +18123,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.491346045605489</v>
+        <v>1.459081441342161</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.458935285637589</v>
@@ -18476,7 +18212,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.503498571232399</v>
+        <v>1.47194040208425</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.403659156624234</v>
@@ -18565,7 +18301,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.509189483728334</v>
+        <v>1.478525109113642</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.464596785253124</v>
@@ -18654,7 +18390,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.526729458206975</v>
+        <v>1.49344948276118</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.355973677640955</v>
@@ -18743,7 +18479,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528545404166173</v>
+        <v>1.490016539690393</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.056710165628472</v>
@@ -18832,7 +18568,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.529161905756914</v>
+        <v>1.484787521471801</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.086215375429543</v>
@@ -18921,7 +18657,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.556155384500667</v>
+        <v>1.491444014697195</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.195824919439778</v>
@@ -19010,7 +18746,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.575696191241992</v>
+        <v>1.507217110135371</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.023813871291814</v>
@@ -19099,7 +18835,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.561690828265599</v>
+        <v>1.492236701857782</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.981192243967226</v>
@@ -19188,7 +18924,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.573677875572941</v>
+        <v>1.501768148581175</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.97681854674456</v>
@@ -19277,7 +19013,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.551637017041931</v>
+        <v>1.486358245130895</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.980724362040637</v>
@@ -19366,7 +19102,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.543472780522275</v>
+        <v>1.474932573350525</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.966289234417307</v>
@@ -19455,7 +19191,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.533039589103543</v>
+        <v>1.464727653775369</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.029494344441191</v>
@@ -19544,7 +19280,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.542635777045938</v>
+        <v>1.475455939765874</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.980591191679812</v>
@@ -19633,7 +19369,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.545753505982851</v>
+        <v>1.484881547493444</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.04194179587635</v>
@@ -19722,7 +19458,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.556876847273268</v>
+        <v>1.498030183598438</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.020468148442523</v>
@@ -19811,7 +19547,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.561971413716298</v>
+        <v>1.502950142454577</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.007873223785106</v>
@@ -19900,7 +19636,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.551209981236743</v>
+        <v>1.486173932570958</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.045368524262665</v>
@@ -19989,7 +19725,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.587258617884439</v>
+        <v>1.532328981769017</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.087247871027456</v>
@@ -20078,7 +19814,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.584380561009924</v>
+        <v>1.539905685318876</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.71126489055198</v>
@@ -20167,7 +19903,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.581941396665367</v>
+        <v>1.548830681705687</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.849887511660876</v>
@@ -20256,7 +19992,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.575182332078452</v>
+        <v>1.541954168450558</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.732765731255717</v>
@@ -20345,7 +20081,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.571138217226305</v>
+        <v>1.538691323225379</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.786356744181694</v>
@@ -20434,7 +20170,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.559958507308864</v>
+        <v>1.534144225854297</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.910844199610907</v>
@@ -20523,7 +20259,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.540794894359892</v>
+        <v>1.521635591968247</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.795521677901794</v>
@@ -20612,7 +20348,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.558632525149487</v>
+        <v>1.537343690878857</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.845058313259474</v>
@@ -20701,7 +20437,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.561817742585363</v>
+        <v>1.552469048891981</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.86353338650487</v>
@@ -20790,7 +20526,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.581148190526849</v>
+        <v>1.577109298082291</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.873044705383152</v>
@@ -20879,7 +20615,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.577307404558332</v>
+        <v>1.578762689785024</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.636076571258356</v>
@@ -20968,7 +20704,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.559690669334671</v>
+        <v>1.563125299885927</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.876745768358471</v>
@@ -21057,7 +20793,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.548838115131322</v>
+        <v>1.548511066197255</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.832671860366945</v>
@@ -21146,7 +20882,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.550322086453239</v>
+        <v>1.554242902524843</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.567539122557744</v>
@@ -21235,7 +20971,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.570876192949595</v>
+        <v>1.571710521040975</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.90023786541807</v>
@@ -21324,7 +21060,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.541774113411448</v>
+        <v>1.536799065408682</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.812461854644614</v>
@@ -21413,7 +21149,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.545356776278549</v>
+        <v>1.536421297450884</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.462848306546159</v>
@@ -21502,7 +21238,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.542076217110609</v>
+        <v>1.529686020287531</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.626597922729561</v>
@@ -21591,7 +21327,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.548632100885531</v>
+        <v>1.538463429452485</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.813096099768419</v>
@@ -21680,7 +21416,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.549440429537502</v>
+        <v>1.540327043838848</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.773888442545925</v>
@@ -21769,7 +21505,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.556526021515364</v>
+        <v>1.53786465882547</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.648726950594444</v>
@@ -21858,7 +21594,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.577340370206659</v>
+        <v>1.557252525904152</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.381670463885456</v>
@@ -21947,7 +21683,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.581353538182865</v>
+        <v>1.558397494915223</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.380153814567905</v>
@@ -22036,7 +21772,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.583481706955184</v>
+        <v>1.561322715953369</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.547367644672362</v>
@@ -22125,7 +21861,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.58130604025896</v>
+        <v>1.553626803428938</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.485578479669689</v>
@@ -22214,7 +21950,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.594117882295782</v>
+        <v>1.558614774536656</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.31844279502563</v>
@@ -22303,7 +22039,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.597032135240525</v>
+        <v>1.566134038105524</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.558347337058917</v>
@@ -22392,7 +22128,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.589138914732009</v>
+        <v>1.555710837028028</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.469850190345456</v>
@@ -22678,7 +22414,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.707585879840077</v>
+        <v>1.573050143817805</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.504055109862942</v>
@@ -22767,7 +22503,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.702820353688028</v>
+        <v>1.565067804344835</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.422523635104636</v>
@@ -22856,7 +22592,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.703350028182107</v>
+        <v>1.563824991855027</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.55692957638803</v>
@@ -22945,7 +22681,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.694747380091629</v>
+        <v>1.546925823648422</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.457377526971816</v>
@@ -23034,7 +22770,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.691444585753766</v>
+        <v>1.538291658644079</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.090059606794155</v>
@@ -23123,7 +22859,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.70683410413422</v>
+        <v>1.561393600204036</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.372050941978578</v>
@@ -23212,7 +22948,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.702072278061771</v>
+        <v>1.564749927281599</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.401142396606666</v>
@@ -23301,7 +23037,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.70057184483816</v>
+        <v>1.559236090799933</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.370793355869518</v>
@@ -23390,7 +23126,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.703891043062733</v>
+        <v>1.569272442128051</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.354253994294353</v>
@@ -23479,7 +23215,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.700264019966487</v>
+        <v>1.566096817268266</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.146012059939794</v>
@@ -23568,7 +23304,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.714096403937918</v>
+        <v>1.583293645112928</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.33043939578023</v>
@@ -23657,7 +23393,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.721176964052721</v>
+        <v>1.597988715576626</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.119676366776935</v>
@@ -23746,7 +23482,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.719349652378967</v>
+        <v>1.600596082997384</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.818759311060626</v>
@@ -23835,7 +23571,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.71186401557155</v>
+        <v>1.588001572973713</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.911735399683664</v>
@@ -23924,7 +23660,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.712026174165825</v>
+        <v>1.586946043812761</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.187444721636747</v>
@@ -24013,7 +23749,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.706562077256723</v>
+        <v>1.584706108806019</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.06203927346259</v>
@@ -24102,7 +23838,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.710843649800342</v>
+        <v>1.590593361902255</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.94668051988623</v>
@@ -24191,7 +23927,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.702998072731904</v>
+        <v>1.589399537740086</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.124606208401544</v>
@@ -24280,7 +24016,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711633857083787</v>
+        <v>1.609174959642098</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.122002791054722</v>
@@ -24369,7 +24105,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.715478774563276</v>
+        <v>1.618982336878211</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.719789682911982</v>
@@ -24458,7 +24194,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.715063877308973</v>
+        <v>1.602753666958278</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.365869910779784</v>
@@ -24547,7 +24283,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.718017789160759</v>
+        <v>1.595504734059123</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.188487417100436</v>
@@ -24636,7 +24372,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.709372893255299</v>
+        <v>1.589088995575834</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.962668598113742</v>
@@ -24725,7 +24461,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.704851859790291</v>
+        <v>1.582633273218927</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.737575822097602</v>
@@ -24814,7 +24550,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.700687579765541</v>
+        <v>1.57443830889528</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.271776658608508</v>
@@ -24903,7 +24639,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.70163845313982</v>
+        <v>1.576737805679068</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.362235788761661</v>
@@ -24992,7 +24728,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.717252379853983</v>
+        <v>1.585417564982011</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.217740384186453</v>
@@ -25081,7 +24817,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.707295165015456</v>
+        <v>1.57315202472696</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.125570825523064</v>
@@ -25170,7 +24906,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.710338138881037</v>
+        <v>1.585359544277141</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.248241920735132</v>
@@ -25259,7 +24995,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713699499197152</v>
+        <v>1.58261903237434</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.167112890317924</v>
@@ -25348,7 +25084,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.716932203764837</v>
+        <v>1.586591783781303</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.184123606641192</v>
@@ -25437,7 +25173,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.714867833075047</v>
+        <v>1.587615289185811</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.164929356893573</v>
@@ -25526,7 +25262,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.722897132682164</v>
+        <v>1.598004812062825</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.263848813622597</v>
@@ -25615,7 +25351,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.722474477788457</v>
+        <v>1.608259001558604</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.074192496580246</v>
@@ -25704,7 +25440,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.717903122755277</v>
+        <v>1.60841252518001</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.178834456826948</v>
@@ -25793,7 +25529,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.717799682881273</v>
+        <v>1.614644070593804</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.150085604839684</v>
@@ -25882,7 +25618,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.717459343299952</v>
+        <v>1.616457793847099</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.077559315116448</v>
@@ -25971,7 +25707,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.724906139172357</v>
+        <v>1.617798708212073</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.14782736600418</v>
@@ -26060,7 +25796,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.72825935266693</v>
+        <v>1.620088060240048</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.338603433725129</v>
@@ -26149,7 +25885,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.727961163426451</v>
+        <v>1.621190747339321</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.31754858870219</v>
@@ -26238,7 +25974,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.724844988067943</v>
+        <v>1.608687413314661</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.277799822980964</v>
@@ -26327,7 +26063,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.718054581343409</v>
+        <v>1.606640962351434</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.906368451455865</v>
@@ -26416,7 +26152,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.726394815932191</v>
+        <v>1.618712851971652</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.541004670852058</v>
@@ -26505,7 +26241,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.726022125141961</v>
+        <v>1.622192582440916</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.958173395544546</v>
@@ -26594,7 +26330,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.73386759348835</v>
+        <v>1.647079604228241</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.462629387429182</v>
@@ -26683,7 +26419,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.719765967565073</v>
+        <v>1.620684435490108</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.827035362397427</v>
@@ -26772,7 +26508,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.714419659990876</v>
+        <v>1.609843735453004</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.846532191728302</v>
@@ -26861,7 +26597,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.703404499291145</v>
+        <v>1.589876683414368</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.82175972211072</v>
@@ -26950,7 +26686,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.70210427987008</v>
+        <v>1.582555208131851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.819603817660343</v>
@@ -27039,7 +26775,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.697632768651675</v>
+        <v>1.575444683272068</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.803746247004226</v>
@@ -27128,7 +26864,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.696988800122443</v>
+        <v>1.578562101245092</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.81799239293437</v>
@@ -27217,7 +26953,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.688397382123646</v>
+        <v>1.571706981682255</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.795303693493891</v>
@@ -27306,7 +27042,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.678570416363891</v>
+        <v>1.564439127790134</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.81584161446009</v>
@@ -27395,7 +27131,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.670372044208783</v>
+        <v>1.553524586769178</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.827461757288511</v>
@@ -27484,7 +27220,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.661464119418695</v>
+        <v>1.540856096829932</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.8158077038116</v>
@@ -27573,7 +27309,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.655917273386346</v>
+        <v>1.544944326519359</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.804178567883333</v>
@@ -27662,7 +27398,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.652680138910838</v>
+        <v>1.544219807576546</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.809351719102607</v>
@@ -27751,7 +27487,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.651975524837695</v>
+        <v>1.540775616825193</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.80405764340902</v>
@@ -27840,7 +27576,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.647869150279245</v>
+        <v>1.528853140364246</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.791639163091149</v>
@@ -27929,7 +27665,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.652073525330551</v>
+        <v>1.534414330384278</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.787127028757096</v>
@@ -28018,7 +27754,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.663373363171865</v>
+        <v>1.555398591194728</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.772948868075966</v>
@@ -28107,7 +27843,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.666387112668497</v>
+        <v>1.562327806325103</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.574836411313639</v>
@@ -28196,7 +27932,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.669829224653006</v>
+        <v>1.57067467463676</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.208619165485953</v>
@@ -28285,7 +28021,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.669229501551474</v>
+        <v>1.56934572886914</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.689419052367675</v>
@@ -28374,7 +28110,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.683790878083769</v>
+        <v>1.58779663610158</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.456995354957331</v>
@@ -28463,7 +28199,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.672513147965178</v>
+        <v>1.57794826179979</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.236090577615133</v>
@@ -28552,7 +28288,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.674724897081059</v>
+        <v>1.584764957605452</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.315540612017637</v>
@@ -28641,7 +28377,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.688255577035747</v>
+        <v>1.607670547942912</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.76033831919184</v>
@@ -28730,7 +28466,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.697190377000547</v>
+        <v>1.62184716703737</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.5086304362648</v>
@@ -28819,7 +28555,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.71140850231099</v>
+        <v>1.643138711662561</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.67495835934029</v>
@@ -28908,7 +28644,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.707507283892082</v>
+        <v>1.638644738092652</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.650123751076636</v>
@@ -28997,7 +28733,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.696351425775971</v>
+        <v>1.624346231757773</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.748966585512711</v>
@@ -29086,7 +28822,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.696319417333583</v>
+        <v>1.627083991207689</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.217295293092437</v>
@@ -29175,7 +28911,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.710527839211365</v>
+        <v>1.644204463943452</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.432230585851927</v>
@@ -29264,7 +29000,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.689223415666935</v>
+        <v>1.609643976035664</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.482161110411702</v>
@@ -29353,7 +29089,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.68009461324381</v>
+        <v>1.590749635600094</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.743316715973178</v>
@@ -29442,7 +29178,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.688466247780269</v>
+        <v>1.602462213462118</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.389800492806133</v>
@@ -29531,7 +29267,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.686052173738154</v>
+        <v>1.600241071417668</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.469696271723851</v>
@@ -29620,7 +29356,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.676506104538862</v>
+        <v>1.593759133955975</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.021451802722948</v>
@@ -29709,7 +29445,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.662700990221903</v>
+        <v>1.574286406495845</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.50058969414565</v>
@@ -29798,7 +29534,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.669324426501406</v>
+        <v>1.577789114608518</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.182682579275591</v>
@@ -29887,7 +29623,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.676357214628988</v>
+        <v>1.581285816989381</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.28105874019531</v>
@@ -29976,7 +29712,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.67337760057539</v>
+        <v>1.578138571663456</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.782583949470895</v>
@@ -30065,7 +29801,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.687652123533803</v>
+        <v>1.591859928343977</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.510675492556161</v>
@@ -30154,7 +29890,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.684859140931437</v>
+        <v>1.586019551043519</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.386026187675363</v>
@@ -30243,7 +29979,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.690778102847886</v>
+        <v>1.588552669023961</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.004152638007683</v>
@@ -30332,7 +30068,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.694658436749245</v>
+        <v>1.585134274506433</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.477544682940434</v>
@@ -30618,7 +30354,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.719948480236063</v>
+        <v>1.615595433521693</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.637780667045268</v>
@@ -30707,7 +30443,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.718690109799805</v>
+        <v>1.610444507973161</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.422542277193822</v>
@@ -30796,7 +30532,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.715465595372905</v>
+        <v>1.598657547890382</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.293611229894521</v>
@@ -30885,7 +30621,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.706218286793689</v>
+        <v>1.582605761118942</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.963063259393396</v>
@@ -30974,7 +30710,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.699772275649004</v>
+        <v>1.57148948230418</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.277623328863661</v>
@@ -31063,7 +30799,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.694713798093619</v>
+        <v>1.570363491371215</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.17675746936859</v>
@@ -31152,7 +30888,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.695708214728847</v>
+        <v>1.575522900041296</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.880189711810905</v>
@@ -31241,7 +30977,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.698908030897127</v>
+        <v>1.569162122880869</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.940133285014617</v>
@@ -31330,7 +31066,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.694346969995658</v>
+        <v>1.554951254377738</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.084784425623125</v>
@@ -31419,7 +31155,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.686713676963058</v>
+        <v>1.551976531461538</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.864821366546658</v>
@@ -31508,7 +31244,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.691254708933568</v>
+        <v>1.559251010388704</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.94677968445451</v>
@@ -31597,7 +31333,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.686924739391398</v>
+        <v>1.556717042552746</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.047288716023213</v>
@@ -31686,7 +31422,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.689064110360039</v>
+        <v>1.554576621950563</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.02982849549002</v>
@@ -31775,7 +31511,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.685684363388841</v>
+        <v>1.545572987356018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.95884038204244</v>
@@ -31864,7 +31600,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.68291922242363</v>
+        <v>1.55409678301591</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.140089475433567</v>
@@ -31953,7 +31689,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.677699364925698</v>
+        <v>1.552072986453069</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.777503672261788</v>
@@ -32042,7 +31778,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.677153892537404</v>
+        <v>1.560238037379336</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.781316367937632</v>
@@ -32131,7 +31867,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.66421223032589</v>
+        <v>1.555188524454771</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.833923327378743</v>
@@ -32220,7 +31956,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.676385827701039</v>
+        <v>1.57787745052683</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.938427221217837</v>
@@ -32309,7 +32045,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.681313753243414</v>
+        <v>1.57940143688231</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.600980948211122</v>
@@ -32398,7 +32134,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.686639804842039</v>
+        <v>1.578704939625021</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.683977105387681</v>
@@ -32487,7 +32223,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.680141197605787</v>
+        <v>1.566612241058555</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.63620994067177</v>
@@ -32576,7 +32312,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.675942628067828</v>
+        <v>1.562910858963552</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.65686908388332</v>
@@ -32665,7 +32401,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.686658310690342</v>
+        <v>1.579616039088306</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.490608804034695</v>
@@ -32754,7 +32490,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.693699437305252</v>
+        <v>1.583417310390312</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.3563400633571</v>
@@ -32843,7 +32579,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.697794769835024</v>
+        <v>1.580944351878568</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.53794896892603</v>
@@ -32932,7 +32668,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.705795769263874</v>
+        <v>1.580277649669243</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.602052389613394</v>
@@ -33021,7 +32757,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.703441552258919</v>
+        <v>1.585849657652689</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.421187442570124</v>
@@ -33110,7 +32846,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.70668493555596</v>
+        <v>1.593591759667889</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.208472810649187</v>
@@ -33199,7 +32935,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6994091238831</v>
+        <v>1.577896741282896</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.287652652310121</v>
@@ -33288,7 +33024,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.704180324905819</v>
+        <v>1.578013719522345</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.282533180653008</v>
@@ -33377,7 +33113,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.70733995740637</v>
+        <v>1.580488244956362</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.262354758325495</v>
@@ -33466,7 +33202,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.737848159038507</v>
+        <v>1.623963569738712</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.110331779952944</v>
@@ -33555,7 +33291,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.730349887851405</v>
+        <v>1.616588230186408</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.214678394753074</v>
@@ -33644,7 +33380,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723559172727069</v>
+        <v>1.614667180662387</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.16951214563285</v>
@@ -33733,7 +33469,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.734748626968993</v>
+        <v>1.631302499427508</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.202874991955858</v>
@@ -33822,7 +33558,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.735173018757911</v>
+        <v>1.638952392701776</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.165548366105353</v>
@@ -33911,7 +33647,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.740926705692337</v>
+        <v>1.647989953724842</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.247860538776184</v>
@@ -34000,7 +33736,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.7298896903224</v>
+        <v>1.63007323761882</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.166509952434816</v>
@@ -34089,7 +33825,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.723817390445233</v>
+        <v>1.619464202198866</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.347870893167467</v>
@@ -34178,7 +33914,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.722780866695935</v>
+        <v>1.626875494781338</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.432151238949159</v>
@@ -34267,7 +34003,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.722232230789076</v>
+        <v>1.635394888766892</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.341714778432312</v>
@@ -34356,7 +34092,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.730257449139406</v>
+        <v>1.639251794857436</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.379309963226325</v>
@@ -34445,7 +34181,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.730058486711963</v>
+        <v>1.644491939290972</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.461371614525523</v>
@@ -34534,7 +34270,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.732086936429678</v>
+        <v>1.649411011996081</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.322429328250716</v>
@@ -34623,7 +34359,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.722054105050779</v>
+        <v>1.637327772288906</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.852661434183882</v>
@@ -34712,7 +34448,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.720628154783071</v>
+        <v>1.633877757902173</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.867912655622735</v>
@@ -34801,7 +34537,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.692315378141337</v>
+        <v>1.594657931577982</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.767740579292181</v>
@@ -34890,7 +34626,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.701892582950712</v>
+        <v>1.604734213834111</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.788794514508617</v>
@@ -34979,7 +34715,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.700797328768329</v>
+        <v>1.594303473338705</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.781612911499194</v>
@@ -35068,7 +34804,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.69806810125409</v>
+        <v>1.591683356358703</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.792255563157526</v>
@@ -35157,7 +34893,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.695392957327017</v>
+        <v>1.586431339505717</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.773858429560935</v>
@@ -35246,7 +34982,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.690636814746922</v>
+        <v>1.579727916598767</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.793654681321235</v>
@@ -35335,7 +35071,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.682123515561602</v>
+        <v>1.575380564086762</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.799323458085357</v>
@@ -35424,7 +35160,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.680120675462866</v>
+        <v>1.579257184086805</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.779573515297624</v>
@@ -35513,7 +35249,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.678347779596607</v>
+        <v>1.577681680554811</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.77861864178514</v>
@@ -35602,7 +35338,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.677966769017875</v>
+        <v>1.57945394009668</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.771747115422295</v>
@@ -35691,7 +35427,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.672257599702477</v>
+        <v>1.576961132928987</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.775131575300019</v>
@@ -35780,7 +35516,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.673867641485914</v>
+        <v>1.573811199807473</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.77798241624772</v>
@@ -35869,7 +35605,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.694658072308807</v>
+        <v>1.600920751857572</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.782361457088584</v>
@@ -35958,7 +35694,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.703611568335581</v>
+        <v>1.611232913249406</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.125277308380119</v>
@@ -36047,7 +35783,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.714856221103051</v>
+        <v>1.6189339528726</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.107309506510864</v>
@@ -36136,7 +35872,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.708334331945418</v>
+        <v>1.616247494151967</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.005376397715307</v>
@@ -36225,7 +35961,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.705641124836213</v>
+        <v>1.60771591032093</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.03686767731453</v>
@@ -36314,7 +36050,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.713247793816588</v>
+        <v>1.625279632464306</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.456651743131106</v>
@@ -36403,7 +36139,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.704731721071493</v>
+        <v>1.615896160837927</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.78616107763034</v>
@@ -36492,7 +36228,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.707869405655862</v>
+        <v>1.619726717950612</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.92816499209429</v>
@@ -36581,7 +36317,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.692673562880303</v>
+        <v>1.615966213322132</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.74164512415434</v>
@@ -36670,7 +36406,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.691148195351561</v>
+        <v>1.619778040052413</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.568886471628976</v>
@@ -36759,7 +36495,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.7021975101335</v>
+        <v>1.628013844484332</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.727979067976035</v>
@@ -36848,7 +36584,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.698043877803206</v>
+        <v>1.626735803674348</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.462027598747984</v>
@@ -36937,7 +36673,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.689867213613341</v>
+        <v>1.615890101952159</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.912548827757818</v>
@@ -37026,7 +36762,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.68790287440577</v>
+        <v>1.618339538274088</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.274913741015758</v>
@@ -37115,7 +36851,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.682901007397756</v>
+        <v>1.615440305350532</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.555574558644094</v>
@@ -37204,7 +36940,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.658455448907911</v>
+        <v>1.5853700514797</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.525828013309726</v>
@@ -37293,7 +37029,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.647116466995937</v>
+        <v>1.57828097851615</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.640084636101376</v>
@@ -37382,7 +37118,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.634836559810259</v>
+        <v>1.568915951158627</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.466350762207698</v>
@@ -37471,7 +37207,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.628617497877873</v>
+        <v>1.561462229173522</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.40397172611674</v>
@@ -37560,7 +37296,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.631358500821833</v>
+        <v>1.562282859053073</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.461296913283976</v>
@@ -37649,7 +37385,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.627424566885907</v>
+        <v>1.556281924226457</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.525351370645298</v>
@@ -37738,7 +37474,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.634120600282603</v>
+        <v>1.554836415004208</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.368708676798391</v>
@@ -37827,7 +37563,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.636740547925617</v>
+        <v>1.561386395083241</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.613560864395664</v>
@@ -37916,7 +37652,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.653515259201591</v>
+        <v>1.569719527415983</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.322539366866563</v>
@@ -38005,7 +37741,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.668943266494106</v>
+        <v>1.582796674572333</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.223820021605954</v>
@@ -38094,7 +37830,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.664941461110323</v>
+        <v>1.574933481221234</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.49724176426191</v>
@@ -38183,7 +37919,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.670201915200658</v>
+        <v>1.575711507710885</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.323286379970567</v>
@@ -38272,7 +38008,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.666652222808054</v>
+        <v>1.557551186873483</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.778718245921294</v>
@@ -38558,7 +38294,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550459574298591</v>
+        <v>1.494902410664489</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.864404916492055</v>
@@ -38647,7 +38383,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.548624946032751</v>
+        <v>1.481228904766419</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.889986617252593</v>
@@ -38736,7 +38472,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.547985703001088</v>
+        <v>1.478862205400151</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.880719730736437</v>
@@ -38825,7 +38561,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.561308376398108</v>
+        <v>1.480388353268727</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.474331432715261</v>
@@ -38914,7 +38650,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.557495311885572</v>
+        <v>1.469068489654923</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.680646020855776</v>
@@ -39003,7 +38739,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.552031943709588</v>
+        <v>1.470659373297792</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.635945339295599</v>
@@ -39092,7 +38828,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.547614829385794</v>
+        <v>1.474876271552677</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.77293408782044</v>
@@ -39181,7 +38917,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.541634884718939</v>
+        <v>1.461462744434898</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.8003482981445</v>
@@ -39270,7 +39006,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.54914161801485</v>
+        <v>1.45714297573965</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.566710421636651</v>
@@ -39359,7 +39095,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560242524146331</v>
+        <v>1.468937890554718</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.614222687236739</v>
@@ -39448,7 +39184,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.554335622954221</v>
+        <v>1.462924599422734</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.697520366248745</v>
@@ -39537,7 +39273,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.558073917910391</v>
+        <v>1.467724685923893</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.665422144086654</v>
@@ -39626,7 +39362,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.568677714676938</v>
+        <v>1.475209066775538</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.066866742456396</v>
@@ -39715,7 +39451,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.557525618495965</v>
+        <v>1.465878121500829</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.190384570235843</v>
@@ -39804,7 +39540,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558077885584405</v>
+        <v>1.471571564701646</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.911065013073575</v>
@@ -39893,7 +39629,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.553406270797405</v>
+        <v>1.472405427042249</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.120625688793237</v>
@@ -39982,7 +39718,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.550590330698191</v>
+        <v>1.476791346868473</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.891088771501328</v>
@@ -40071,7 +39807,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.550300599162398</v>
+        <v>1.480684916732292</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.815678417502666</v>
@@ -40160,7 +39896,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.55854648016665</v>
+        <v>1.489278020263276</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.867355176293277</v>
@@ -40249,7 +39985,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.563345504173297</v>
+        <v>1.492989583478441</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.865119855399512</v>
@@ -40338,7 +40074,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.57583532041565</v>
+        <v>1.493251882961783</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.895666335669511</v>
@@ -40427,7 +40163,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564593212692536</v>
+        <v>1.472870937226631</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.729053772414046</v>
@@ -40516,7 +40252,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.571681296735561</v>
+        <v>1.482061587209423</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.866823201044635</v>
@@ -40605,7 +40341,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567434120856157</v>
+        <v>1.485713636885952</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.716073393348199</v>
@@ -40694,7 +40430,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567298452301205</v>
+        <v>1.481527182337027</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.781664808838296</v>
@@ -40783,7 +40519,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.575186629617982</v>
+        <v>1.486396885093271</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.952759462594724</v>
@@ -40872,7 +40608,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.583409641691604</v>
+        <v>1.490108735879921</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.676750583480191</v>
@@ -40961,7 +40697,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.584636800245603</v>
+        <v>1.483276375334447</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.978914808860697</v>
@@ -41050,7 +40786,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.585073931244162</v>
+        <v>1.484087555617076</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.525386279099439</v>
@@ -41139,7 +40875,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.595005588567081</v>
+        <v>1.490741902424688</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.901521606434214</v>
@@ -41228,7 +40964,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.59850900298741</v>
+        <v>1.494730675222856</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.748902110071234</v>
@@ -41317,7 +41053,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609129206068633</v>
+        <v>1.503186371555988</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.152729217670576</v>
@@ -41406,7 +41142,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.62976787179441</v>
+        <v>1.550995400617511</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.724956352589339</v>
@@ -41495,7 +41231,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599847426172702</v>
+        <v>1.532837809818931</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.697384950815317</v>
@@ -41584,7 +41320,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.588796604699552</v>
+        <v>1.532097480479608</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.624898045575747</v>
@@ -41673,7 +41409,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585437046518573</v>
+        <v>1.53646425636265</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.445012597357709</v>
@@ -41762,7 +41498,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.589976822990827</v>
+        <v>1.550517602982989</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.659177362873182</v>
@@ -41851,7 +41587,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589200728463324</v>
+        <v>1.551661813534006</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.729517506952045</v>
@@ -41940,7 +41676,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.59161918065864</v>
+        <v>1.555955322978819</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.587612903861632</v>
@@ -42029,7 +41765,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.592968600742807</v>
+        <v>1.554238668859485</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.569851812458889</v>
@@ -42118,7 +41854,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.59686389991277</v>
+        <v>1.562145398466243</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.607111304718598</v>
@@ -42207,7 +41943,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.595362769541033</v>
+        <v>1.566750656276849</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.7072936458698</v>
@@ -42296,7 +42032,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.60644042795247</v>
+        <v>1.580122779728049</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.534803994895435</v>
@@ -42385,7 +42121,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.610481108285962</v>
+        <v>1.585429237477056</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.504468190296254</v>
@@ -42474,7 +42210,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607797400839539</v>
+        <v>1.584934726616418</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.646064566598258</v>
@@ -42563,7 +42299,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.61077331639363</v>
+        <v>1.580089195910142</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.871948234859098</v>
@@ -42652,7 +42388,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.610927396246014</v>
+        <v>1.581346623658596</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.824984471446944</v>
@@ -42741,7 +42477,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.593540416395396</v>
+        <v>1.54222784759673</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.780173572713296</v>
@@ -42830,7 +42566,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615164492840067</v>
+        <v>1.565100205362056</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.800086143690068</v>
@@ -42919,7 +42655,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.623356367181419</v>
+        <v>1.571522222032701</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.750178255964933</v>
@@ -43008,7 +42744,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.631621941480158</v>
+        <v>1.579238307063403</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.772744279418464</v>
@@ -43097,7 +42833,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.626277084217573</v>
+        <v>1.579805219067772</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.775070137745054</v>
@@ -43186,7 +42922,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.621617290930235</v>
+        <v>1.572182033083807</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.783547988935129</v>
@@ -43275,7 +43011,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.606364666634201</v>
+        <v>1.558649522866672</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.775320269335997</v>
@@ -43364,7 +43100,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.596287408561007</v>
+        <v>1.552449546714902</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.790164684913889</v>
@@ -43453,7 +43189,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.59101344135221</v>
+        <v>1.547687260888387</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.783591057524259</v>
@@ -43542,7 +43278,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.589617762512312</v>
+        <v>1.546356988214925</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.780858341293929</v>
@@ -43631,7 +43367,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.590205685212725</v>
+        <v>1.55306569774499</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.777041886164499</v>
@@ -43720,7 +43456,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594528796534857</v>
+        <v>1.550154687355862</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.785166357413768</v>
@@ -43809,7 +43545,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.615615491790878</v>
+        <v>1.569813100669777</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.822437421162949</v>
@@ -43898,7 +43634,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.611185568365848</v>
+        <v>1.574546122136653</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.575863729879005</v>
@@ -43987,7 +43723,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.61260434440346</v>
+        <v>1.572835854325378</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.696057127505621</v>
@@ -44076,7 +43812,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.587421107428963</v>
+        <v>1.559361462871391</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.66241636809171</v>
@@ -44165,7 +43901,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.588856236735752</v>
+        <v>1.556467845505656</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.852914505864335</v>
@@ -44254,7 +43990,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.58331588645412</v>
+        <v>1.555794397814142</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.72013117962343</v>
@@ -44343,7 +44079,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.564335374586869</v>
+        <v>1.53727722270282</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.718845490586931</v>
@@ -44432,7 +44168,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.570565295989837</v>
+        <v>1.537964953496326</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.833407736599614</v>
@@ -44521,7 +44257,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.577849424715493</v>
+        <v>1.546869271608359</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.786624915108925</v>
@@ -44610,7 +44346,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.595619590413225</v>
+        <v>1.565172894335715</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.628754019008347</v>
@@ -44699,7 +44435,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.600171655773666</v>
+        <v>1.57087521123726</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.758918911541376</v>
@@ -44788,7 +44524,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.59796943722342</v>
+        <v>1.571888300875747</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.7030077095456</v>
@@ -44877,7 +44613,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.590423630083018</v>
+        <v>1.568779684136287</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.702813008982941</v>
@@ -44966,7 +44702,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.594651775565359</v>
+        <v>1.570856323813613</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.832903139651868</v>
@@ -45055,7 +44791,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.598184208347003</v>
+        <v>1.581837230367728</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.802936353171799</v>
@@ -45144,7 +44880,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.578689550221539</v>
+        <v>1.559866202620912</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.643862398297559</v>
@@ -45233,7 +44969,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.579455967289381</v>
+        <v>1.556916552708452</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.651213733196028</v>
@@ -45322,7 +45058,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.600217704044338</v>
+        <v>1.568413424061408</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.259803940261427</v>
@@ -45411,7 +45147,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.624332667079276</v>
+        <v>1.582140501418632</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.867177797269928</v>
@@ -45500,7 +45236,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.628785322964829</v>
+        <v>1.585187502573976</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.749641825114759</v>
@@ -45589,7 +45325,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.641591577416227</v>
+        <v>1.580118962377397</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.186277420005195</v>
@@ -45678,7 +45414,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.661323291659186</v>
+        <v>1.601503458268165</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.153714577671716</v>
@@ -45767,7 +45503,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.650471813458844</v>
+        <v>1.598294255904696</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.278626000277737</v>
@@ -45856,7 +45592,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.650626062696301</v>
+        <v>1.595899605499445</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.328412649634473</v>
@@ -45945,7 +45681,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.642812560585336</v>
+        <v>1.588447066336673</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.210112887612663</v>
@@ -46034,7 +45770,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.651596007541348</v>
+        <v>1.588098177313777</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.145958990853893</v>
@@ -46123,7 +45859,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.644895374172711</v>
+        <v>1.579235366327291</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.470787431043147</v>
@@ -46212,7 +45948,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.647227423407651</v>
+        <v>1.570740725614835</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.481218121849061</v>
@@ -46498,7 +46234,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.43152506658557</v>
+        <v>1.395659269203204</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.501508535174068</v>
@@ -46587,7 +46323,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.431776656445319</v>
+        <v>1.38927594060524</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.438386490906004</v>
@@ -46676,7 +46412,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.434318466521343</v>
+        <v>1.39041102439743</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.380529431853009</v>
@@ -46765,7 +46501,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.429588636383413</v>
+        <v>1.378700732770115</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.720335266369754</v>
@@ -46854,7 +46590,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.430025435407763</v>
+        <v>1.372192473666366</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.449014832929072</v>
@@ -46943,7 +46679,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.42551041763206</v>
+        <v>1.366029782826047</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.292746191093372</v>
@@ -47032,7 +46768,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.435686527422841</v>
+        <v>1.374731510187376</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.643017313118371</v>
@@ -47121,7 +46857,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.417886327781489</v>
+        <v>1.356293192690702</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.231910084830618</v>
@@ -47210,7 +46946,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.419256351425921</v>
+        <v>1.352366299247691</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.335310726881461</v>
@@ -47299,7 +47035,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.447444387433566</v>
+        <v>1.375747796517224</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.599910444467417</v>
@@ -47388,7 +47124,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.473628277908434</v>
+        <v>1.402342898237086</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.493546494130033</v>
@@ -47477,7 +47213,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.472504083208575</v>
+        <v>1.404131411899326</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.384462898623713</v>
@@ -47566,7 +47302,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.477439504052603</v>
+        <v>1.405527811857621</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.50308619650674</v>
@@ -47655,7 +47391,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.461228452823469</v>
+        <v>1.385955056821928</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.726247778641214</v>
@@ -47744,7 +47480,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465439501261731</v>
+        <v>1.392854457353009</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.629704342242897</v>
@@ -47833,7 +47569,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.475712128944975</v>
+        <v>1.40586463104948</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.621557047223517</v>
@@ -47922,7 +47658,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.478219471980994</v>
+        <v>1.416360008637277</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.522163914769831</v>
@@ -48011,7 +47747,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.454572005206688</v>
+        <v>1.403841417767254</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.374247658967132</v>
@@ -48100,7 +47836,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.462370683032167</v>
+        <v>1.414170535706514</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.461838704784342</v>
@@ -48189,7 +47925,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.45878520511796</v>
+        <v>1.412579068236633</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.365781444846292</v>
@@ -48278,7 +48014,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.478474533278108</v>
+        <v>1.424480991051022</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.387225931390663</v>
@@ -48367,7 +48103,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.464418599332642</v>
+        <v>1.406867268289452</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.413313953671172</v>
@@ -48456,7 +48192,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.484921243562005</v>
+        <v>1.424498828522707</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.464570190865822</v>
@@ -48545,7 +48281,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.489758926425005</v>
+        <v>1.427590868554526</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.436428970843696</v>
@@ -48634,7 +48370,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.492441770694744</v>
+        <v>1.424975009572043</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.533065097083365</v>
@@ -48723,7 +48459,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.485461836488746</v>
+        <v>1.410984154261792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.290131060101038</v>
@@ -48812,7 +48548,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.497320926754242</v>
+        <v>1.411763779307969</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.381227133580977</v>
@@ -48901,7 +48637,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.502982382834195</v>
+        <v>1.417486562524309</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.379946520543124</v>
@@ -48990,7 +48726,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.520514428304836</v>
+        <v>1.441208816664056</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.285896862524924</v>
@@ -49079,7 +48815,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.535561611559452</v>
+        <v>1.451214970075323</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.365118228919352</v>
@@ -49168,7 +48904,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.536471711118975</v>
+        <v>1.446306718118695</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.214697504301682</v>
@@ -49257,7 +48993,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.560048194278207</v>
+        <v>1.461862028831312</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.446193086840744</v>
@@ -49346,7 +49082,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.602895950267979</v>
+        <v>1.498778716935818</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.510995188299002</v>
@@ -49435,7 +49171,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.587645938563624</v>
+        <v>1.49622782516479</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.33931901944417</v>
@@ -49524,7 +49260,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.585635213824584</v>
+        <v>1.502579634353241</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.540313937865061</v>
@@ -49613,7 +49349,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.579001693733023</v>
+        <v>1.501437398394678</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.355598963241743</v>
@@ -49702,7 +49438,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.603323270345779</v>
+        <v>1.529186003785235</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.332233399425617</v>
@@ -49791,7 +49527,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.610202293535772</v>
+        <v>1.535516229391835</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.521171893873927</v>
@@ -49880,7 +49616,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.61459292478217</v>
+        <v>1.532677221360808</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.4323703918625</v>
@@ -49969,7 +49705,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.611417627640116</v>
+        <v>1.528526186616988</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.386610264498179</v>
@@ -50058,7 +49794,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.612913368397824</v>
+        <v>1.534341061182326</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.340495883324784</v>
@@ -50147,7 +49883,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.60441442706687</v>
+        <v>1.538123747923352</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.424239631856936</v>
@@ -50236,7 +49972,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.646662843870258</v>
+        <v>1.570464853780163</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.076323834001383</v>
@@ -50325,7 +50061,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.634776441651927</v>
+        <v>1.564271855233957</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.387733615260518</v>
@@ -50414,7 +50150,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.60753631969128</v>
+        <v>1.545035744299993</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.632585760972032</v>
@@ -50503,7 +50239,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609859694694481</v>
+        <v>1.539376850300543</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.762485810813156</v>
@@ -50592,7 +50328,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.60677993004955</v>
+        <v>1.531442152210837</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.788889542658369</v>
@@ -50681,7 +50417,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.591199880491706</v>
+        <v>1.509404089279981</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.741046131815623</v>
@@ -50770,7 +50506,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.603906905974675</v>
+        <v>1.514663300976052</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.738635667330761</v>
@@ -50859,7 +50595,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.584680296690358</v>
+        <v>1.494856160566784</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.774618369191831</v>
@@ -50948,7 +50684,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.594480708186891</v>
+        <v>1.50075825087558</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.753768227500128</v>
@@ -51037,7 +50773,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.562766070540948</v>
+        <v>1.471467739368918</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.753010086514394</v>
@@ -51126,7 +50862,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.552813855323284</v>
+        <v>1.461708511334911</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.776046258113814</v>
@@ -51215,7 +50951,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.527584160084261</v>
+        <v>1.442356629024557</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.776748121483863</v>
@@ -51304,7 +51040,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.521531706081506</v>
+        <v>1.442294227976702</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.779369961482512</v>
@@ -51393,7 +51129,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.522250598558326</v>
+        <v>1.446664191217272</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.760661036251714</v>
@@ -51482,7 +51218,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.524887456698751</v>
+        <v>1.451984364019754</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.752269187017565</v>
@@ -51571,7 +51307,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.517850462223908</v>
+        <v>1.451902891439082</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.767178216929605</v>
@@ -51660,7 +51396,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.515258711874545</v>
+        <v>1.43604304905185</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.751479732515397</v>
@@ -51749,7 +51485,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.545186459895595</v>
+        <v>1.47310449126471</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.775130788659366</v>
@@ -51838,7 +51574,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.524304502093842</v>
+        <v>1.462443578600105</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.457730654058551</v>
@@ -51927,7 +51663,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.522332438752159</v>
+        <v>1.472959027663759</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.373536793448404</v>
@@ -52016,7 +51752,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.498796382491909</v>
+        <v>1.453256249645757</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.357789767231285</v>
@@ -52105,7 +51841,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.491038356300742</v>
+        <v>1.443775488707511</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.471064721068794</v>
@@ -52194,7 +51930,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.509533596038135</v>
+        <v>1.456093208094038</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.438016101044247</v>
@@ -52283,7 +52019,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.507271216030606</v>
+        <v>1.455268050371331</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.673826650912539</v>
@@ -52372,7 +52108,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.525595399953311</v>
+        <v>1.473262644769554</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.635034347045991</v>
@@ -52461,7 +52197,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.533489092724421</v>
+        <v>1.48286860646201</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.365289027798526</v>
@@ -52550,7 +52286,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.552394131328712</v>
+        <v>1.505591417057476</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.400911812715683</v>
@@ -52639,7 +52375,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.552507896968181</v>
+        <v>1.506647929841587</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.369484328087788</v>
@@ -52728,7 +52464,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.54538747711299</v>
+        <v>1.501470135937394</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.505354736426466</v>
@@ -52817,7 +52553,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.52113204964399</v>
+        <v>1.477676507966831</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.480213591155785</v>
@@ -52906,7 +52642,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.5171837530035</v>
+        <v>1.471218218277493</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.412197915697885</v>
@@ -52995,7 +52731,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.531434091757276</v>
+        <v>1.48543644457673</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.291350326079641</v>
@@ -53084,7 +52820,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.517074782315059</v>
+        <v>1.458282341472003</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.397071203724331</v>
@@ -53173,7 +52909,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.538469957262646</v>
+        <v>1.470520007036262</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.259539472242269</v>
@@ -53262,7 +52998,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.528304853705635</v>
+        <v>1.461174334369266</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.399287083569252</v>
@@ -53351,7 +53087,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.561021046082304</v>
+        <v>1.488076850328879</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.458169851653544</v>
@@ -53440,7 +53176,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.566096047954289</v>
+        <v>1.495047927741946</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.434632828427413</v>
@@ -53529,7 +53265,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.549647533656517</v>
+        <v>1.484876739056343</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.326069952177189</v>
@@ -53618,7 +53354,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.551777790494709</v>
+        <v>1.486708133721217</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.454336284364739</v>
@@ -53707,7 +53443,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.548913825051712</v>
+        <v>1.484114168935444</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.505910226066569</v>
@@ -53796,7 +53532,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.550200650125745</v>
+        <v>1.490524060431262</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.325709532033727</v>
@@ -53885,7 +53621,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.534929525566244</v>
+        <v>1.480174577134289</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.458938335664874</v>
@@ -53974,7 +53710,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.545196369217923</v>
+        <v>1.485136902653295</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.725742540904856</v>
@@ -54063,7 +53799,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.544551006731566</v>
+        <v>1.487253957251836</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.446164724297736</v>
@@ -54152,7 +53888,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.550547337300362</v>
+        <v>1.480008522914747</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.727706826813089</v>
